--- a/input.xlsx
+++ b/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamadkaddoura/Desktop/university/PhD/Plan/work/paper 3/drafts/JCP/review/2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamadkaddoura/Desktop/university/PhD/Plan/work/paper 3/drafts/JCP/review/3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5258A400-DFB9-2C4D-AB66-1BBF575D4704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE55B20-3807-EA4B-99F1-983225BA8B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-4660" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{DEBB4877-C18A-A540-878D-812F18E1125D}"/>
+    <workbookView xWindow="28800" yWindow="-4660" windowWidth="38400" windowHeight="20160" activeTab="1" xr2:uid="{DEBB4877-C18A-A540-878D-812F18E1125D}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="5" r:id="rId1"/>
@@ -732,12 +732,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10286,7 +10286,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10336,8 +10336,9 @@
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>3.39</v>
+      <c r="F2" s="23">
+        <f>efficiencies!AG2+efficiencies!AI2</f>
+        <v>3.3859649122807007</v>
       </c>
       <c r="G2">
         <v>0.05</v>
@@ -10359,8 +10360,9 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>1.81</v>
+      <c r="F3" s="23">
+        <f>efficiencies!AG9+efficiencies!AI9</f>
+        <v>1.8070175438596487</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -10382,8 +10384,9 @@
       <c r="E4">
         <v>15</v>
       </c>
-      <c r="F4">
-        <v>3.39</v>
+      <c r="F4" s="23">
+        <f>efficiencies!AG16+efficiencies!AI16</f>
+        <v>3.3859649122807007</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -10405,8 +10408,9 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>2.5099999999999998</v>
+      <c r="F5" s="23">
+        <f>efficiencies!AG23+efficiencies!AI23</f>
+        <v>2.5087719298245608</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -10428,8 +10432,9 @@
       <c r="E6">
         <v>10</v>
       </c>
-      <c r="F6">
-        <v>3.39</v>
+      <c r="F6" s="23">
+        <f>efficiencies!AG30+efficiencies!AI30</f>
+        <v>3.3859649122807007</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -10451,8 +10456,9 @@
       <c r="E7">
         <v>15</v>
       </c>
-      <c r="F7">
-        <v>4.8499999999999996</v>
+      <c r="F7" s="23">
+        <f>efficiencies!AG37+efficiencies!AI37</f>
+        <v>4.8479532163742682</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -10474,8 +10480,9 @@
       <c r="E8">
         <v>15</v>
       </c>
-      <c r="F8">
-        <v>4.8499999999999996</v>
+      <c r="F8" s="23">
+        <f>efficiencies!AG44+efficiencies!AI44</f>
+        <v>4.8479532163742682</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10916,8 +10923,8 @@
   </sheetPr>
   <dimension ref="A1:AV50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC52" sqref="AC52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10995,50 +11002,47 @@
       <c r="S1" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="Z1" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25" t="s">
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="AC1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AD1" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="AF1" s="25" t="s">
+      <c r="AF1" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="AG1" s="25" t="s">
+      <c r="AG1" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25" t="s">
+      <c r="AI1" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="AP1" s="25" t="s">
+      <c r="AP1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25" t="s">
+      <c r="AR1" s="19" t="s">
         <v>157</v>
       </c>
       <c r="AT1" s="19" t="s">
@@ -11172,11 +11176,11 @@
         <v>9</v>
       </c>
       <c r="AN2">
-        <f t="shared" ref="AN2:AN33" si="0">AI2*((O2/P2)-1)</f>
+        <f>AI2*((O2/P2)-1)</f>
         <v>28.499999999999993</v>
       </c>
       <c r="AO2">
-        <f t="shared" ref="AO2:AO33" si="1">AJ2*((O2/P2)-1)</f>
+        <f t="shared" ref="AO2:AO33" si="0">AJ2*((O2/P2)-1)</f>
         <v>0</v>
       </c>
       <c r="AP2">
@@ -11184,7 +11188,7 @@
         <v>5</v>
       </c>
       <c r="AQ2">
-        <f t="shared" ref="AQ2:AQ33" si="2">R2*AH2*((O2/P2)-(ROUNDDOWN(O2/N2,0)))</f>
+        <f t="shared" ref="AQ2:AQ33" si="1">R2*AH2*((O2/P2)-(ROUNDDOWN(O2/N2,0)))</f>
         <v>0</v>
       </c>
       <c r="AR2">
@@ -11192,7 +11196,7 @@
         <v>5</v>
       </c>
       <c r="AS2">
-        <f t="shared" ref="AS2:AS33" si="3">S2*AH2*ROUNDDOWN(O2/N2,0)</f>
+        <f t="shared" ref="AS2:AS33" si="2">S2*AH2*ROUNDDOWN(O2/N2,0)</f>
         <v>0</v>
       </c>
       <c r="AT2">
@@ -11204,7 +11208,7 @@
         <v>54.361004136357138</v>
       </c>
       <c r="AV2">
-        <f t="shared" ref="AV2:AV33" si="4">AT2-AU2</f>
+        <f t="shared" ref="AV2:AV33" si="3">AT2-AU2</f>
         <v>0</v>
       </c>
     </row>
@@ -11264,30 +11268,30 @@
         <v>0</v>
       </c>
       <c r="T3" s="8">
-        <f t="shared" ref="T3:T16" si="5">0.11*B3*(1/(B3*F3*G3*H3*I3))*(O3/P3)</f>
+        <f t="shared" ref="T3:T15" si="4">0.11*B3*(1/(B3*F3*G3*H3*I3))*(O3/P3)</f>
         <v>4.8245614035087723</v>
       </c>
       <c r="U3" s="8">
-        <f t="shared" ref="U3:U15" si="6">0.11*(1/(G3*H3*I3*F3*E3))*((1/B3)-1)*(O3/P3)</f>
+        <f t="shared" ref="U3:U15" si="5">0.11*(1/(G3*H3*I3*F3*E3))*((1/B3)-1)*(O3/P3)</f>
         <v>0.53606237816764146</v>
       </c>
       <c r="V3" s="8">
-        <f t="shared" ref="V3:V15" si="7">0.14*(AF3/F3)*(O3/P3)</f>
+        <f t="shared" ref="V3:V15" si="6">0.14*(AF3/F3)*(O3/P3)</f>
         <v>6.1403508771929829</v>
       </c>
       <c r="W3" s="8">
         <v>0</v>
       </c>
       <c r="X3" s="9">
-        <f t="shared" ref="X3:X16" si="8">0.64*C3*(1/(C3*F3*G3*H3*I3))*(O3/P3)</f>
+        <f t="shared" ref="X3:X15" si="7">0.64*C3*(1/(C3*F3*G3*H3*I3))*(O3/P3)</f>
         <v>28.07017543859649</v>
       </c>
       <c r="Y3" s="9">
-        <f t="shared" ref="Y3:Y16" si="9">0.64*(1-C3)*(1/(C3*F3*G3*H3*I3))*(O3/P3)</f>
+        <f t="shared" ref="Y3:Y15" si="8">0.64*(1-C3)*(1/(C3*F3*G3*H3*I3))*(O3/P3)</f>
         <v>9.9652926353824949</v>
       </c>
       <c r="Z3" s="9">
-        <f t="shared" ref="Z3:Z15" si="10">0.86*(AF3/F3)*(O3/P3)</f>
+        <f t="shared" ref="Z3:Z15" si="9">0.86*(AF3/F3)*(O3/P3)</f>
         <v>37.719298245614027</v>
       </c>
       <c r="AA3" s="9">
@@ -11298,11 +11302,11 @@
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF33" si="11">1/(G3*H3*I3)</f>
+        <f t="shared" ref="AF3:AF33" si="10">1/(G3*H3*I3)</f>
         <v>4.1666666666666661</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG50" si="12">(1/(G3*H3*I3))*((1/F3)-1)</f>
+        <f t="shared" ref="AG3:AG50" si="11">(1/(G3*H3*I3))*((1/F3)-1)</f>
         <v>0.21929824561403483</v>
       </c>
       <c r="AH3">
@@ -11313,55 +11317,55 @@
         <v>0.31666666666666654</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ33" si="13">Q3*(AF3-AH3)</f>
+        <f t="shared" ref="AJ3:AJ33" si="12">Q3*(AF3-AH3)</f>
         <v>2.8499999999999996</v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK33" si="14">AF3*((O3/P3)-1)</f>
+        <f t="shared" ref="AK3:AK33" si="13">AF3*((O3/P3)-1)</f>
         <v>37.499999999999993</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL33" si="15">AG3*((O3/P3)-1)</f>
+        <f t="shared" ref="AL3:AL33" si="14">AG3*((O3/P3)-1)</f>
         <v>1.9736842105263135</v>
       </c>
       <c r="AM3">
-        <f t="shared" ref="AM3:AM33" si="16">AH3*((O3/P3)-1)</f>
+        <f t="shared" ref="AM3:AM33" si="15">AH3*((O3/P3)-1)</f>
         <v>9</v>
       </c>
       <c r="AN3">
+        <f>AI3*((O3/P3)-1)</f>
+        <v>2.8499999999999988</v>
+      </c>
+      <c r="AO3">
         <f t="shared" si="0"/>
-        <v>2.8499999999999988</v>
-      </c>
-      <c r="AO3">
+        <v>25.65</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" ref="AP3:AP33" si="16">(1-R3)*AH3*((O3/P3)-(ROUNDDOWN(O3/N3,0)))</f>
+        <v>5</v>
+      </c>
+      <c r="AQ3">
         <f t="shared" si="1"/>
-        <v>25.65</v>
-      </c>
-      <c r="AP3">
-        <f t="shared" ref="AP3:AP33" si="17">(1-R3)*AH3*((O3/P3)-(ROUNDDOWN(O3/N3,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" ref="AR3:AR33" si="17">(1-S3)*AH3*ROUNDDOWN(O3/N3,0)</f>
         <v>5</v>
       </c>
-      <c r="AQ3">
+      <c r="AS3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR3">
-        <f t="shared" ref="AR3:AR33" si="18">(1-S3)*AH3*ROUNDDOWN(O3/N3,0)</f>
-        <v>5</v>
-      </c>
-      <c r="AS3">
+      <c r="AT3">
+        <f t="shared" ref="AT3:AT15" si="18">(V3+Z3+AD3+U3+Y3+AC3)</f>
+        <v>54.361004136357153</v>
+      </c>
+      <c r="AU3">
+        <f>U3+W3+Y3+AA3+AC3+AE3+AG3+AI3+AJ3+AL3+AN3+AO3+AP3+AQ3+AR3+AS3</f>
+        <v>54.361004136357145</v>
+      </c>
+      <c r="AV3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <f t="shared" ref="AT3:AT15" si="19">(V3+Z3+AD3+U3+Y3+AC3)</f>
-        <v>54.361004136357153</v>
-      </c>
-      <c r="AU3">
-        <f t="shared" ref="AU3:AU29" si="20">U3+W3+Y3+AA3+AC3+AE3+AG3+AI3+AJ3+AL3+AN3+AO3+AP3+AQ3+AR3+AS3</f>
-        <v>54.361004136357145</v>
-      </c>
-      <c r="AV3">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11421,30 +11425,30 @@
         <v>0</v>
       </c>
       <c r="T4" s="8">
+        <f t="shared" si="4"/>
+        <v>2.4646546122650177</v>
+      </c>
+      <c r="U4" s="8">
         <f t="shared" si="5"/>
-        <v>2.4646546122650177</v>
-      </c>
-      <c r="U4" s="8">
+        <v>0.27385051247389097</v>
+      </c>
+      <c r="V4" s="8">
         <f t="shared" si="6"/>
-        <v>0.27385051247389097</v>
-      </c>
-      <c r="V4" s="8">
+        <v>3.1368331428827503</v>
+      </c>
+      <c r="W4" s="8">
+        <v>0</v>
+      </c>
+      <c r="X4" s="9">
         <f t="shared" si="7"/>
-        <v>3.1368331428827503</v>
-      </c>
-      <c r="W4" s="8">
-        <v>0</v>
-      </c>
-      <c r="X4" s="9">
+        <v>14.339808653178284</v>
+      </c>
+      <c r="Y4" s="9">
         <f t="shared" si="8"/>
-        <v>14.339808653178284</v>
-      </c>
-      <c r="Y4" s="9">
+        <v>5.0908263782286056</v>
+      </c>
+      <c r="Z4" s="9">
         <f t="shared" si="9"/>
-        <v>5.0908263782286056</v>
-      </c>
-      <c r="Z4" s="9">
-        <f t="shared" si="10"/>
         <v>19.269117877708318</v>
       </c>
       <c r="AA4" s="9">
@@ -11455,70 +11459,70 @@
       <c r="AD4" s="8"/>
       <c r="AE4" s="8"/>
       <c r="AF4">
+        <f t="shared" si="10"/>
+        <v>2.1285653469561514</v>
+      </c>
+      <c r="AG4">
         <f t="shared" si="11"/>
-        <v>2.1285653469561514</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" si="12"/>
         <v>0.11202975510295521</v>
       </c>
       <c r="AH4">
         <v>1</v>
       </c>
       <c r="AI4">
-        <f t="shared" ref="AI4:AI50" si="21">((1/(G4*H4*I4))-1)*(1-Q4)</f>
+        <f>((1/(G4*H4*I4))-1)*(1-Q4)</f>
         <v>1.1285653469561514</v>
       </c>
       <c r="AJ4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK4">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK4">
+        <v>19.157088122605362</v>
+      </c>
+      <c r="AL4">
         <f t="shared" si="14"/>
-        <v>19.157088122605362</v>
-      </c>
-      <c r="AL4">
+        <v>1.0082677959265969</v>
+      </c>
+      <c r="AM4">
         <f t="shared" si="15"/>
-        <v>1.0082677959265969</v>
-      </c>
-      <c r="AM4">
+        <v>9</v>
+      </c>
+      <c r="AN4">
+        <f>AI4*((O4/P4)-1)</f>
+        <v>10.157088122605362</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP4">
         <f t="shared" si="16"/>
-        <v>9</v>
-      </c>
-      <c r="AN4">
-        <f t="shared" si="0"/>
-        <v>10.157088122605362</v>
-      </c>
-      <c r="AO4">
+        <v>5</v>
+      </c>
+      <c r="AQ4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP4">
+      <c r="AR4">
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="AQ4">
+      <c r="AS4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR4">
+      <c r="AT4">
         <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="AS4">
+        <v>27.770627911293566</v>
+      </c>
+      <c r="AU4">
+        <f>U4+W4+Y4+AA4+AC4+AE4+AG4+AI4+AJ4+AL4+AN4+AO4+AP4+AQ4+AR4+AS4</f>
+        <v>27.770627911293563</v>
+      </c>
+      <c r="AV4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <f t="shared" si="19"/>
-        <v>27.770627911293566</v>
-      </c>
-      <c r="AU4">
-        <f t="shared" si="20"/>
-        <v>27.770627911293563</v>
-      </c>
-      <c r="AV4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11578,30 +11582,30 @@
         <v>0</v>
       </c>
       <c r="T5" s="8">
+        <f t="shared" si="4"/>
+        <v>2.4122807017543861</v>
+      </c>
+      <c r="U5" s="8">
         <f t="shared" si="5"/>
-        <v>2.4122807017543861</v>
-      </c>
-      <c r="U5" s="8">
+        <v>0.26803118908382073</v>
+      </c>
+      <c r="V5" s="8">
         <f t="shared" si="6"/>
-        <v>0.26803118908382073</v>
-      </c>
-      <c r="V5" s="8">
+        <v>3.0701754385964914</v>
+      </c>
+      <c r="W5" s="8">
+        <v>0</v>
+      </c>
+      <c r="X5" s="9">
         <f t="shared" si="7"/>
-        <v>3.0701754385964914</v>
-      </c>
-      <c r="W5" s="8">
-        <v>0</v>
-      </c>
-      <c r="X5" s="9">
+        <v>14.035087719298245</v>
+      </c>
+      <c r="Y5" s="9">
         <f t="shared" si="8"/>
-        <v>14.035087719298245</v>
-      </c>
-      <c r="Y5" s="9">
+        <v>4.9826463176912474</v>
+      </c>
+      <c r="Z5" s="9">
         <f t="shared" si="9"/>
-        <v>4.9826463176912474</v>
-      </c>
-      <c r="Z5" s="9">
-        <f t="shared" si="10"/>
         <v>18.859649122807014</v>
       </c>
       <c r="AA5" s="9">
@@ -11612,70 +11616,70 @@
       <c r="AD5" s="8"/>
       <c r="AE5" s="8"/>
       <c r="AF5">
+        <f t="shared" si="10"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="AG5">
         <f t="shared" si="11"/>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" si="12"/>
         <v>0.21929824561403483</v>
       </c>
       <c r="AH5">
         <v>1</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="21"/>
+        <f>((1/(G5*H5*I5))-1)*(1-Q5)</f>
         <v>3.1666666666666661</v>
       </c>
       <c r="AJ5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK5">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK5">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AL5">
         <f t="shared" si="14"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AL5">
+        <v>0.8771929824561393</v>
+      </c>
+      <c r="AM5">
         <f t="shared" si="15"/>
-        <v>0.8771929824561393</v>
-      </c>
-      <c r="AM5">
+        <v>4</v>
+      </c>
+      <c r="AN5">
+        <f>AI5*((O5/P5)-1)</f>
+        <v>12.666666666666664</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP5">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="AN5">
-        <f t="shared" si="0"/>
-        <v>12.666666666666664</v>
-      </c>
-      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP5">
+      <c r="AR5">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ5">
+        <v>5</v>
+      </c>
+      <c r="AS5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR5">
+      <c r="AT5">
         <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="AS5">
+        <v>27.180502068178576</v>
+      </c>
+      <c r="AU5">
+        <f>U5+W5+Y5+AA5+AC5+AE5+AG5+AI5+AJ5+AL5+AN5+AO5+AP5+AQ5+AR5+AS5</f>
+        <v>27.180502068178569</v>
+      </c>
+      <c r="AV5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <f t="shared" si="19"/>
-        <v>27.180502068178576</v>
-      </c>
-      <c r="AU5">
-        <f t="shared" si="20"/>
-        <v>27.180502068178569</v>
-      </c>
-      <c r="AV5">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11735,30 +11739,30 @@
         <v>0</v>
       </c>
       <c r="T6" s="8">
+        <f t="shared" si="4"/>
+        <v>4.8245614035087723</v>
+      </c>
+      <c r="U6" s="8">
         <f t="shared" si="5"/>
-        <v>4.8245614035087723</v>
-      </c>
-      <c r="U6" s="8">
+        <v>0.53606237816764146</v>
+      </c>
+      <c r="V6" s="8">
         <f t="shared" si="6"/>
-        <v>0.53606237816764146</v>
-      </c>
-      <c r="V6" s="8">
+        <v>6.1403508771929829</v>
+      </c>
+      <c r="W6" s="8">
+        <v>0</v>
+      </c>
+      <c r="X6" s="9">
         <f t="shared" si="7"/>
-        <v>6.1403508771929829</v>
-      </c>
-      <c r="W6" s="8">
-        <v>0</v>
-      </c>
-      <c r="X6" s="9">
+        <v>28.07017543859649</v>
+      </c>
+      <c r="Y6" s="9">
         <f t="shared" si="8"/>
-        <v>28.07017543859649</v>
-      </c>
-      <c r="Y6" s="9">
+        <v>9.9652926353824949</v>
+      </c>
+      <c r="Z6" s="9">
         <f t="shared" si="9"/>
-        <v>9.9652926353824949</v>
-      </c>
-      <c r="Z6" s="9">
-        <f t="shared" si="10"/>
         <v>37.719298245614027</v>
       </c>
       <c r="AA6" s="9">
@@ -11769,70 +11773,70 @@
       <c r="AD6" s="8"/>
       <c r="AE6" s="8"/>
       <c r="AF6">
+        <f t="shared" si="10"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="AG6">
         <f t="shared" si="11"/>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" si="12"/>
         <v>0.21929824561403483</v>
       </c>
       <c r="AH6">
         <v>1</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="21"/>
+        <f>((1/(G6*H6*I6))-1)*(1-Q6)</f>
         <v>3.1666666666666661</v>
       </c>
       <c r="AJ6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK6">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK6">
+        <v>37.499999999999993</v>
+      </c>
+      <c r="AL6">
         <f t="shared" si="14"/>
-        <v>37.499999999999993</v>
-      </c>
-      <c r="AL6">
+        <v>1.9736842105263135</v>
+      </c>
+      <c r="AM6">
         <f t="shared" si="15"/>
-        <v>1.9736842105263135</v>
-      </c>
-      <c r="AM6">
+        <v>9</v>
+      </c>
+      <c r="AN6">
+        <f>AI6*((O6/P6)-1)</f>
+        <v>28.499999999999993</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP6">
         <f t="shared" si="16"/>
-        <v>9</v>
-      </c>
-      <c r="AN6">
-        <f t="shared" si="0"/>
-        <v>28.499999999999993</v>
-      </c>
-      <c r="AO6">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="AQ6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AP6">
+        <v>4</v>
+      </c>
+      <c r="AR6">
         <f t="shared" si="17"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="AQ6">
+        <v>5</v>
+      </c>
+      <c r="AS6">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
         <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="AS6">
+        <v>54.361004136357153</v>
+      </c>
+      <c r="AU6">
+        <f>U6+W6+Y6+AA6+AC6+AE6+AG6+AI6+AJ6+AL6+AN6+AO6+AP6+AQ6+AR6+AS6</f>
+        <v>54.361004136357138</v>
+      </c>
+      <c r="AV6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <f t="shared" si="19"/>
-        <v>54.361004136357153</v>
-      </c>
-      <c r="AU6">
-        <f t="shared" si="20"/>
-        <v>54.361004136357138</v>
-      </c>
-      <c r="AV6">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11892,30 +11896,30 @@
         <v>0.5</v>
       </c>
       <c r="T7" s="8">
+        <f t="shared" si="4"/>
+        <v>4.8245614035087723</v>
+      </c>
+      <c r="U7" s="8">
         <f t="shared" si="5"/>
-        <v>4.8245614035087723</v>
-      </c>
-      <c r="U7" s="8">
+        <v>0.53606237816764146</v>
+      </c>
+      <c r="V7" s="8">
         <f t="shared" si="6"/>
-        <v>0.53606237816764146</v>
-      </c>
-      <c r="V7" s="8">
+        <v>6.1403508771929829</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9">
         <f t="shared" si="7"/>
-        <v>6.1403508771929829</v>
-      </c>
-      <c r="W7" s="8">
-        <v>0</v>
-      </c>
-      <c r="X7" s="9">
+        <v>28.07017543859649</v>
+      </c>
+      <c r="Y7" s="9">
         <f t="shared" si="8"/>
-        <v>28.07017543859649</v>
-      </c>
-      <c r="Y7" s="9">
+        <v>9.9652926353824949</v>
+      </c>
+      <c r="Z7" s="9">
         <f t="shared" si="9"/>
-        <v>9.9652926353824949</v>
-      </c>
-      <c r="Z7" s="9">
-        <f t="shared" si="10"/>
         <v>37.719298245614027</v>
       </c>
       <c r="AA7" s="9">
@@ -11926,70 +11930,70 @@
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
       <c r="AF7">
+        <f t="shared" si="10"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="AG7">
         <f t="shared" si="11"/>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="12"/>
         <v>0.21929824561403483</v>
       </c>
       <c r="AH7">
         <v>1</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="21"/>
+        <f>((1/(G7*H7*I7))-1)*(1-Q7)</f>
         <v>3.1666666666666661</v>
       </c>
       <c r="AJ7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK7">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK7">
+        <v>37.499999999999993</v>
+      </c>
+      <c r="AL7">
         <f t="shared" si="14"/>
-        <v>37.499999999999993</v>
-      </c>
-      <c r="AL7">
+        <v>1.9736842105263135</v>
+      </c>
+      <c r="AM7">
         <f t="shared" si="15"/>
-        <v>1.9736842105263135</v>
-      </c>
-      <c r="AM7">
+        <v>9</v>
+      </c>
+      <c r="AN7">
+        <f>AI7*((O7/P7)-1)</f>
+        <v>28.499999999999993</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP7">
         <f t="shared" si="16"/>
-        <v>9</v>
-      </c>
-      <c r="AN7">
-        <f t="shared" si="0"/>
-        <v>28.499999999999993</v>
-      </c>
-      <c r="AO7">
+        <v>5</v>
+      </c>
+      <c r="AQ7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP7">
+      <c r="AR7">
         <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="AQ7">
+        <v>2.5</v>
+      </c>
+      <c r="AS7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AR7">
+        <v>2.5</v>
+      </c>
+      <c r="AT7">
         <f t="shared" si="18"/>
-        <v>2.5</v>
-      </c>
-      <c r="AS7">
+        <v>54.361004136357153</v>
+      </c>
+      <c r="AU7">
+        <f>U7+W7+Y7+AA7+AC7+AE7+AG7+AI7+AJ7+AL7+AN7+AO7+AP7+AQ7+AR7+AS7</f>
+        <v>54.361004136357138</v>
+      </c>
+      <c r="AV7">
         <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="AT7">
-        <f t="shared" si="19"/>
-        <v>54.361004136357153</v>
-      </c>
-      <c r="AU7">
-        <f t="shared" si="20"/>
-        <v>54.361004136357138</v>
-      </c>
-      <c r="AV7">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12049,30 +12053,30 @@
         <v>0.5</v>
       </c>
       <c r="T8" s="8">
+        <f t="shared" si="4"/>
+        <v>1.2323273061325088</v>
+      </c>
+      <c r="U8" s="8">
         <f t="shared" si="5"/>
-        <v>1.2323273061325088</v>
-      </c>
-      <c r="U8" s="8">
+        <v>0.13692525623694549</v>
+      </c>
+      <c r="V8" s="8">
         <f t="shared" si="6"/>
-        <v>0.13692525623694549</v>
-      </c>
-      <c r="V8" s="8">
+        <v>1.5684165714413751</v>
+      </c>
+      <c r="W8" s="8">
+        <v>0</v>
+      </c>
+      <c r="X8" s="9">
         <f t="shared" si="7"/>
-        <v>1.5684165714413751</v>
-      </c>
-      <c r="W8" s="8">
-        <v>0</v>
-      </c>
-      <c r="X8" s="9">
+        <v>7.1699043265891422</v>
+      </c>
+      <c r="Y8" s="9">
         <f t="shared" si="8"/>
-        <v>7.1699043265891422</v>
-      </c>
-      <c r="Y8" s="9">
+        <v>2.5454131891143028</v>
+      </c>
+      <c r="Z8" s="9">
         <f t="shared" si="9"/>
-        <v>2.5454131891143028</v>
-      </c>
-      <c r="Z8" s="9">
-        <f t="shared" si="10"/>
         <v>9.634558938854159</v>
       </c>
       <c r="AA8" s="9">
@@ -12083,70 +12087,70 @@
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
       <c r="AF8">
+        <f t="shared" si="10"/>
+        <v>2.1285653469561514</v>
+      </c>
+      <c r="AG8">
         <f t="shared" si="11"/>
-        <v>2.1285653469561514</v>
-      </c>
-      <c r="AG8">
-        <f t="shared" si="12"/>
         <v>0.11202975510295521</v>
       </c>
       <c r="AH8">
         <v>1</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="21"/>
+        <f>((1/(G8*H8*I8))-1)*(1-Q8)</f>
         <v>0.11285653469561512</v>
       </c>
       <c r="AJ8">
+        <f t="shared" si="12"/>
+        <v>1.0157088122605362</v>
+      </c>
+      <c r="AK8">
         <f t="shared" si="13"/>
-        <v>1.0157088122605362</v>
-      </c>
-      <c r="AK8">
+        <v>8.5142613878246056</v>
+      </c>
+      <c r="AL8">
         <f t="shared" si="14"/>
-        <v>8.5142613878246056</v>
-      </c>
-      <c r="AL8">
+        <v>0.44811902041182083</v>
+      </c>
+      <c r="AM8">
         <f t="shared" si="15"/>
-        <v>0.44811902041182083</v>
-      </c>
-      <c r="AM8">
+        <v>4</v>
+      </c>
+      <c r="AN8">
+        <f>AI8*((O8/P8)-1)</f>
+        <v>0.45142613878246046</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="0"/>
+        <v>4.0628352490421449</v>
+      </c>
+      <c r="AP8">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="AN8">
-        <f t="shared" si="0"/>
-        <v>0.45142613878246046</v>
-      </c>
-      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
         <f t="shared" si="1"/>
-        <v>4.0628352490421449</v>
-      </c>
-      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ8">
+        <v>2.5</v>
+      </c>
+      <c r="AS8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AR8">
+        <v>2.5</v>
+      </c>
+      <c r="AT8">
         <f t="shared" si="18"/>
-        <v>2.5</v>
-      </c>
-      <c r="AS8">
+        <v>13.885313955646783</v>
+      </c>
+      <c r="AU8">
+        <f>U8+W8+Y8+AA8+AC8+AE8+AG8+AI8+AJ8+AL8+AN8+AO8+AP8+AQ8+AR8+AS8</f>
+        <v>13.885313955646781</v>
+      </c>
+      <c r="AV8">
         <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="AT8">
-        <f t="shared" si="19"/>
-        <v>13.885313955646783</v>
-      </c>
-      <c r="AU8">
-        <f t="shared" si="20"/>
-        <v>13.885313955646781</v>
-      </c>
-      <c r="AV8">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12206,30 +12210,30 @@
         <v>0</v>
       </c>
       <c r="T9" s="8">
+        <f t="shared" si="4"/>
+        <v>6.1754385964912286</v>
+      </c>
+      <c r="U9" s="8">
         <f t="shared" si="5"/>
-        <v>6.1754385964912286</v>
-      </c>
-      <c r="U9" s="8">
+        <v>0.6861598440545813</v>
+      </c>
+      <c r="V9" s="8">
         <f t="shared" si="6"/>
-        <v>0.6861598440545813</v>
-      </c>
-      <c r="V9" s="8">
+        <v>7.8596491228070171</v>
+      </c>
+      <c r="W9" s="8">
+        <v>0</v>
+      </c>
+      <c r="X9" s="9">
         <f t="shared" si="7"/>
-        <v>7.8596491228070171</v>
-      </c>
-      <c r="W9" s="8">
-        <v>0</v>
-      </c>
-      <c r="X9" s="9">
+        <v>35.929824561403507</v>
+      </c>
+      <c r="Y9" s="9">
         <f t="shared" si="8"/>
-        <v>35.929824561403507</v>
-      </c>
-      <c r="Y9" s="9">
+        <v>12.755574573289595</v>
+      </c>
+      <c r="Z9" s="9">
         <f t="shared" si="9"/>
-        <v>12.755574573289595</v>
-      </c>
-      <c r="Z9" s="9">
-        <f t="shared" si="10"/>
         <v>48.280701754385966</v>
       </c>
       <c r="AA9" s="9">
@@ -12240,70 +12244,70 @@
       <c r="AD9" s="8"/>
       <c r="AE9" s="8"/>
       <c r="AF9">
+        <f t="shared" si="10"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AG9">
         <f t="shared" si="11"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AG9">
-        <f t="shared" si="12"/>
         <v>0.14035087719298228</v>
       </c>
       <c r="AH9">
         <v>1</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="21"/>
+        <f>((1/(G9*H9*I9))-1)*(1-Q9)</f>
         <v>1.6666666666666665</v>
       </c>
       <c r="AJ9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK9">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK9">
+        <v>50.666666666666664</v>
+      </c>
+      <c r="AL9">
         <f t="shared" si="14"/>
-        <v>50.666666666666664</v>
-      </c>
-      <c r="AL9">
+        <v>2.6666666666666634</v>
+      </c>
+      <c r="AM9">
         <f t="shared" si="15"/>
-        <v>2.6666666666666634</v>
-      </c>
-      <c r="AM9">
+        <v>19</v>
+      </c>
+      <c r="AN9">
+        <f>AI9*((O9/P9)-1)</f>
+        <v>31.666666666666664</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP9">
         <f t="shared" si="16"/>
-        <v>19</v>
-      </c>
-      <c r="AN9">
-        <f t="shared" si="0"/>
-        <v>31.666666666666664</v>
-      </c>
-      <c r="AO9">
+        <v>15</v>
+      </c>
+      <c r="AQ9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP9">
+      <c r="AR9">
         <f t="shared" si="17"/>
-        <v>15</v>
-      </c>
-      <c r="AQ9">
+        <v>5</v>
+      </c>
+      <c r="AS9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR9">
+      <c r="AT9">
         <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="AS9">
+        <v>69.582085294537166</v>
+      </c>
+      <c r="AU9">
+        <f>U9+W9+Y9+AA9+AC9+AE9+AG9+AI9+AJ9+AL9+AN9+AO9+AP9+AQ9+AR9+AS9</f>
+        <v>69.582085294537151</v>
+      </c>
+      <c r="AV9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <f t="shared" si="19"/>
-        <v>69.582085294537166</v>
-      </c>
-      <c r="AU9">
-        <f t="shared" si="20"/>
-        <v>69.582085294537151</v>
-      </c>
-      <c r="AV9">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12363,30 +12367,30 @@
         <v>0</v>
       </c>
       <c r="T10" s="8">
+        <f t="shared" si="4"/>
+        <v>6.1754385964912286</v>
+      </c>
+      <c r="U10" s="8">
         <f t="shared" si="5"/>
-        <v>6.1754385964912286</v>
-      </c>
-      <c r="U10" s="8">
+        <v>0.6861598440545813</v>
+      </c>
+      <c r="V10" s="8">
         <f t="shared" si="6"/>
-        <v>0.6861598440545813</v>
-      </c>
-      <c r="V10" s="8">
+        <v>7.8596491228070171</v>
+      </c>
+      <c r="W10" s="8">
+        <v>0</v>
+      </c>
+      <c r="X10" s="9">
         <f t="shared" si="7"/>
-        <v>7.8596491228070171</v>
-      </c>
-      <c r="W10" s="8">
-        <v>0</v>
-      </c>
-      <c r="X10" s="9">
+        <v>35.929824561403507</v>
+      </c>
+      <c r="Y10" s="9">
         <f t="shared" si="8"/>
-        <v>35.929824561403507</v>
-      </c>
-      <c r="Y10" s="9">
+        <v>12.755574573289595</v>
+      </c>
+      <c r="Z10" s="9">
         <f t="shared" si="9"/>
-        <v>12.755574573289595</v>
-      </c>
-      <c r="Z10" s="9">
-        <f t="shared" si="10"/>
         <v>48.280701754385966</v>
       </c>
       <c r="AA10" s="9">
@@ -12397,70 +12401,70 @@
       <c r="AD10" s="8"/>
       <c r="AE10" s="8"/>
       <c r="AF10">
+        <f t="shared" si="10"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AG10">
         <f t="shared" si="11"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" si="12"/>
         <v>0.14035087719298228</v>
       </c>
       <c r="AH10">
         <v>1</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="21"/>
+        <f>((1/(G10*H10*I10))-1)*(1-Q10)</f>
         <v>0.1666666666666666</v>
       </c>
       <c r="AJ10">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="AK10">
         <f t="shared" si="13"/>
-        <v>1.5</v>
-      </c>
-      <c r="AK10">
+        <v>50.666666666666664</v>
+      </c>
+      <c r="AL10">
         <f t="shared" si="14"/>
-        <v>50.666666666666664</v>
-      </c>
-      <c r="AL10">
+        <v>2.6666666666666634</v>
+      </c>
+      <c r="AM10">
         <f t="shared" si="15"/>
-        <v>2.6666666666666634</v>
-      </c>
-      <c r="AM10">
+        <v>19</v>
+      </c>
+      <c r="AN10">
+        <f>AI10*((O10/P10)-1)</f>
+        <v>3.1666666666666656</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="0"/>
+        <v>28.5</v>
+      </c>
+      <c r="AP10">
         <f t="shared" si="16"/>
-        <v>19</v>
-      </c>
-      <c r="AN10">
-        <f t="shared" si="0"/>
-        <v>3.1666666666666656</v>
-      </c>
-      <c r="AO10">
+        <v>15</v>
+      </c>
+      <c r="AQ10">
         <f t="shared" si="1"/>
-        <v>28.5</v>
-      </c>
-      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
         <f t="shared" si="17"/>
-        <v>15</v>
-      </c>
-      <c r="AQ10">
+        <v>5</v>
+      </c>
+      <c r="AS10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR10">
+      <c r="AT10">
         <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="AS10">
+        <v>69.582085294537166</v>
+      </c>
+      <c r="AU10">
+        <f>U10+W10+Y10+AA10+AC10+AE10+AG10+AI10+AJ10+AL10+AN10+AO10+AP10+AQ10+AR10+AS10</f>
+        <v>69.582085294537151</v>
+      </c>
+      <c r="AV10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <f t="shared" si="19"/>
-        <v>69.582085294537166</v>
-      </c>
-      <c r="AU10">
-        <f t="shared" si="20"/>
-        <v>69.582085294537151</v>
-      </c>
-      <c r="AV10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12520,30 +12524,30 @@
         <v>0</v>
       </c>
       <c r="T11" s="8">
+        <f t="shared" si="4"/>
+        <v>4.2884990253411308</v>
+      </c>
+      <c r="U11" s="8">
         <f t="shared" si="5"/>
-        <v>4.2884990253411308</v>
-      </c>
-      <c r="U11" s="8">
+        <v>0.4764998917045703</v>
+      </c>
+      <c r="V11" s="8">
         <f t="shared" si="6"/>
-        <v>0.4764998917045703</v>
-      </c>
-      <c r="V11" s="8">
+        <v>5.4580896686159841</v>
+      </c>
+      <c r="W11" s="8">
+        <v>0</v>
+      </c>
+      <c r="X11" s="9">
         <f t="shared" si="7"/>
-        <v>5.4580896686159841</v>
-      </c>
-      <c r="W11" s="8">
-        <v>0</v>
-      </c>
-      <c r="X11" s="9">
+        <v>24.951267056530217</v>
+      </c>
+      <c r="Y11" s="9">
         <f t="shared" si="8"/>
-        <v>24.951267056530217</v>
-      </c>
-      <c r="Y11" s="9">
+        <v>8.8580378981177752</v>
+      </c>
+      <c r="Z11" s="9">
         <f t="shared" si="9"/>
-        <v>8.8580378981177752</v>
-      </c>
-      <c r="Z11" s="9">
-        <f t="shared" si="10"/>
         <v>33.528265107212476</v>
       </c>
       <c r="AA11" s="9">
@@ -12554,70 +12558,70 @@
       <c r="AD11" s="8"/>
       <c r="AE11" s="8"/>
       <c r="AF11">
+        <f t="shared" si="10"/>
+        <v>1.8518518518518516</v>
+      </c>
+      <c r="AG11">
         <f t="shared" si="11"/>
-        <v>1.8518518518518516</v>
-      </c>
-      <c r="AG11">
-        <f t="shared" si="12"/>
         <v>9.7465886939571034E-2</v>
       </c>
       <c r="AH11">
         <v>1</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="21"/>
+        <f>((1/(G11*H11*I11))-1)*(1-Q11)</f>
         <v>0.85185185185185164</v>
       </c>
       <c r="AJ11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK11">
+        <v>35.185185185185183</v>
+      </c>
+      <c r="AL11">
         <f t="shared" si="14"/>
-        <v>35.185185185185183</v>
-      </c>
-      <c r="AL11">
+        <v>1.8518518518518496</v>
+      </c>
+      <c r="AM11">
         <f t="shared" si="15"/>
-        <v>1.8518518518518496</v>
-      </c>
-      <c r="AM11">
+        <v>19</v>
+      </c>
+      <c r="AN11">
+        <f>AI11*((O11/P11)-1)</f>
+        <v>16.18518518518518</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP11">
         <f t="shared" si="16"/>
-        <v>19</v>
-      </c>
-      <c r="AN11">
-        <f t="shared" si="0"/>
-        <v>16.18518518518518</v>
-      </c>
-      <c r="AO11">
+        <v>15</v>
+      </c>
+      <c r="AQ11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP11">
+      <c r="AR11">
         <f t="shared" si="17"/>
-        <v>15</v>
-      </c>
-      <c r="AQ11">
+        <v>5</v>
+      </c>
+      <c r="AS11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR11">
+      <c r="AT11">
         <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="AS11">
+        <v>48.320892565650809</v>
+      </c>
+      <c r="AU11">
+        <f>U11+W11+Y11+AA11+AC11+AE11+AG11+AI11+AJ11+AL11+AN11+AO11+AP11+AQ11+AR11+AS11</f>
+        <v>48.320892565650794</v>
+      </c>
+      <c r="AV11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <f t="shared" si="19"/>
-        <v>48.320892565650809</v>
-      </c>
-      <c r="AU11">
-        <f t="shared" si="20"/>
-        <v>48.320892565650794</v>
-      </c>
-      <c r="AV11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12677,30 +12681,30 @@
         <v>0</v>
       </c>
       <c r="T12" s="8">
+        <f t="shared" si="4"/>
+        <v>3.0877192982456143</v>
+      </c>
+      <c r="U12" s="8">
         <f t="shared" si="5"/>
-        <v>3.0877192982456143</v>
-      </c>
-      <c r="U12" s="8">
+        <v>0.34307992202729065</v>
+      </c>
+      <c r="V12" s="8">
         <f t="shared" si="6"/>
-        <v>0.34307992202729065</v>
-      </c>
-      <c r="V12" s="8">
+        <v>3.9298245614035086</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="9">
         <f t="shared" si="7"/>
-        <v>3.9298245614035086</v>
-      </c>
-      <c r="W12" s="8">
-        <v>0</v>
-      </c>
-      <c r="X12" s="9">
+        <v>17.964912280701753</v>
+      </c>
+      <c r="Y12" s="9">
         <f t="shared" si="8"/>
-        <v>17.964912280701753</v>
-      </c>
-      <c r="Y12" s="9">
+        <v>6.3777872866447973</v>
+      </c>
+      <c r="Z12" s="9">
         <f t="shared" si="9"/>
-        <v>6.3777872866447973</v>
-      </c>
-      <c r="Z12" s="9">
-        <f t="shared" si="10"/>
         <v>24.140350877192983</v>
       </c>
       <c r="AA12" s="9">
@@ -12711,70 +12715,70 @@
       <c r="AD12" s="8"/>
       <c r="AE12" s="8"/>
       <c r="AF12">
+        <f t="shared" si="10"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AG12">
         <f t="shared" si="11"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" si="12"/>
         <v>0.14035087719298228</v>
       </c>
       <c r="AH12">
         <v>1</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="21"/>
+        <f>((1/(G12*H12*I12))-1)*(1-Q12)</f>
         <v>1.6666666666666665</v>
       </c>
       <c r="AJ12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK12">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK12">
+        <v>24</v>
+      </c>
+      <c r="AL12">
         <f t="shared" si="14"/>
-        <v>24</v>
-      </c>
-      <c r="AL12">
+        <v>1.2631578947368405</v>
+      </c>
+      <c r="AM12">
         <f t="shared" si="15"/>
-        <v>1.2631578947368405</v>
-      </c>
-      <c r="AM12">
+        <v>9</v>
+      </c>
+      <c r="AN12">
+        <f>AI12*((O12/P12)-1)</f>
+        <v>14.999999999999998</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP12">
         <f t="shared" si="16"/>
-        <v>9</v>
-      </c>
-      <c r="AN12">
-        <f t="shared" si="0"/>
-        <v>14.999999999999998</v>
-      </c>
-      <c r="AO12">
+        <v>5</v>
+      </c>
+      <c r="AQ12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP12">
+      <c r="AR12">
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="AQ12">
+      <c r="AS12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR12">
+      <c r="AT12">
         <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="AS12">
+        <v>34.791042647268583</v>
+      </c>
+      <c r="AU12">
+        <f>U12+W12+Y12+AA12+AC12+AE12+AG12+AI12+AJ12+AL12+AN12+AO12+AP12+AQ12+AR12+AS12</f>
+        <v>34.791042647268576</v>
+      </c>
+      <c r="AV12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <f t="shared" si="19"/>
-        <v>34.791042647268583</v>
-      </c>
-      <c r="AU12">
-        <f t="shared" si="20"/>
-        <v>34.791042647268576</v>
-      </c>
-      <c r="AV12">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12834,30 +12838,30 @@
         <v>0</v>
       </c>
       <c r="T13" s="8">
+        <f t="shared" si="4"/>
+        <v>6.1754385964912286</v>
+      </c>
+      <c r="U13" s="8">
         <f t="shared" si="5"/>
-        <v>6.1754385964912286</v>
-      </c>
-      <c r="U13" s="8">
+        <v>0.6861598440545813</v>
+      </c>
+      <c r="V13" s="8">
         <f t="shared" si="6"/>
-        <v>0.6861598440545813</v>
-      </c>
-      <c r="V13" s="8">
+        <v>7.8596491228070171</v>
+      </c>
+      <c r="W13" s="8">
+        <v>0</v>
+      </c>
+      <c r="X13" s="9">
         <f t="shared" si="7"/>
-        <v>7.8596491228070171</v>
-      </c>
-      <c r="W13" s="8">
-        <v>0</v>
-      </c>
-      <c r="X13" s="9">
+        <v>35.929824561403507</v>
+      </c>
+      <c r="Y13" s="9">
         <f t="shared" si="8"/>
-        <v>35.929824561403507</v>
-      </c>
-      <c r="Y13" s="9">
+        <v>12.755574573289595</v>
+      </c>
+      <c r="Z13" s="9">
         <f t="shared" si="9"/>
-        <v>12.755574573289595</v>
-      </c>
-      <c r="Z13" s="9">
-        <f t="shared" si="10"/>
         <v>48.280701754385966</v>
       </c>
       <c r="AA13" s="9">
@@ -12868,70 +12872,70 @@
       <c r="AD13" s="8"/>
       <c r="AE13" s="8"/>
       <c r="AF13">
+        <f t="shared" si="10"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AG13">
         <f t="shared" si="11"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AG13">
-        <f t="shared" si="12"/>
         <v>0.14035087719298228</v>
       </c>
       <c r="AH13">
         <v>1</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="21"/>
+        <f>((1/(G13*H13*I13))-1)*(1-Q13)</f>
         <v>1.6666666666666665</v>
       </c>
       <c r="AJ13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK13">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK13">
+        <v>50.666666666666664</v>
+      </c>
+      <c r="AL13">
         <f t="shared" si="14"/>
-        <v>50.666666666666664</v>
-      </c>
-      <c r="AL13">
+        <v>2.6666666666666634</v>
+      </c>
+      <c r="AM13">
         <f t="shared" si="15"/>
-        <v>2.6666666666666634</v>
-      </c>
-      <c r="AM13">
+        <v>19</v>
+      </c>
+      <c r="AN13">
+        <f>AI13*((O13/P13)-1)</f>
+        <v>31.666666666666664</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP13">
         <f t="shared" si="16"/>
-        <v>19</v>
-      </c>
-      <c r="AN13">
-        <f t="shared" si="0"/>
-        <v>31.666666666666664</v>
-      </c>
-      <c r="AO13">
+        <v>2.9999999999999991</v>
+      </c>
+      <c r="AQ13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AP13">
+        <v>12</v>
+      </c>
+      <c r="AR13">
         <f t="shared" si="17"/>
-        <v>2.9999999999999991</v>
-      </c>
-      <c r="AQ13">
+        <v>5</v>
+      </c>
+      <c r="AS13">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
         <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="AS13">
+        <v>69.582085294537166</v>
+      </c>
+      <c r="AU13">
+        <f>U13+W13+Y13+AA13+AC13+AE13+AG13+AI13+AJ13+AL13+AN13+AO13+AP13+AQ13+AR13+AS13</f>
+        <v>69.582085294537151</v>
+      </c>
+      <c r="AV13">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <f t="shared" si="19"/>
-        <v>69.582085294537166</v>
-      </c>
-      <c r="AU13">
-        <f t="shared" si="20"/>
-        <v>69.582085294537151</v>
-      </c>
-      <c r="AV13">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12991,7 +12995,7 @@
         <v>0.5</v>
       </c>
       <c r="T14" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.1754385964912286</v>
       </c>
       <c r="U14" s="8">
@@ -12999,22 +13003,22 @@
         <v>0.6861598440545813</v>
       </c>
       <c r="V14" s="8">
+        <f t="shared" si="6"/>
+        <v>7.8596491228070171</v>
+      </c>
+      <c r="W14" s="8">
+        <v>0</v>
+      </c>
+      <c r="X14" s="9">
         <f t="shared" si="7"/>
-        <v>7.8596491228070171</v>
-      </c>
-      <c r="W14" s="8">
-        <v>0</v>
-      </c>
-      <c r="X14" s="9">
+        <v>35.929824561403507</v>
+      </c>
+      <c r="Y14" s="9">
         <f t="shared" si="8"/>
-        <v>35.929824561403507</v>
-      </c>
-      <c r="Y14" s="9">
+        <v>12.755574573289595</v>
+      </c>
+      <c r="Z14" s="9">
         <f t="shared" si="9"/>
-        <v>12.755574573289595</v>
-      </c>
-      <c r="Z14" s="9">
-        <f t="shared" si="10"/>
         <v>48.280701754385966</v>
       </c>
       <c r="AA14" s="9">
@@ -13025,70 +13029,70 @@
       <c r="AD14" s="8"/>
       <c r="AE14" s="8"/>
       <c r="AF14">
+        <f t="shared" si="10"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AG14">
         <f t="shared" si="11"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AG14">
-        <f t="shared" si="12"/>
         <v>0.14035087719298228</v>
       </c>
       <c r="AH14">
         <v>1</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="21"/>
+        <f>((1/(G14*H14*I14))-1)*(1-Q14)</f>
         <v>1.6666666666666665</v>
       </c>
       <c r="AJ14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK14">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK14">
+        <v>50.666666666666664</v>
+      </c>
+      <c r="AL14">
         <f t="shared" si="14"/>
-        <v>50.666666666666664</v>
-      </c>
-      <c r="AL14">
+        <v>2.6666666666666634</v>
+      </c>
+      <c r="AM14">
         <f t="shared" si="15"/>
-        <v>2.6666666666666634</v>
-      </c>
-      <c r="AM14">
+        <v>19</v>
+      </c>
+      <c r="AN14">
+        <f>AI14*((O14/P14)-1)</f>
+        <v>31.666666666666664</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP14">
         <f t="shared" si="16"/>
-        <v>19</v>
-      </c>
-      <c r="AN14">
-        <f t="shared" si="0"/>
-        <v>31.666666666666664</v>
-      </c>
-      <c r="AO14">
+        <v>15</v>
+      </c>
+      <c r="AQ14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP14">
+      <c r="AR14">
         <f t="shared" si="17"/>
-        <v>15</v>
-      </c>
-      <c r="AQ14">
+        <v>2.5</v>
+      </c>
+      <c r="AS14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AR14">
+        <v>2.5</v>
+      </c>
+      <c r="AT14">
         <f t="shared" si="18"/>
-        <v>2.5</v>
-      </c>
-      <c r="AS14">
+        <v>69.582085294537166</v>
+      </c>
+      <c r="AU14">
+        <f>U14+W14+Y14+AA14+AC14+AE14+AG14+AI14+AJ14+AL14+AN14+AO14+AP14+AQ14+AR14+AS14</f>
+        <v>69.582085294537151</v>
+      </c>
+      <c r="AV14">
         <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="19"/>
-        <v>69.582085294537166</v>
-      </c>
-      <c r="AU14">
-        <f t="shared" si="20"/>
-        <v>69.582085294537151</v>
-      </c>
-      <c r="AV14">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13148,30 +13152,30 @@
         <v>0.5</v>
       </c>
       <c r="T15" s="8">
+        <f t="shared" si="4"/>
+        <v>2.1442495126705654</v>
+      </c>
+      <c r="U15" s="8">
         <f t="shared" si="5"/>
-        <v>2.1442495126705654</v>
-      </c>
-      <c r="U15" s="8">
+        <v>0.23824994585228515</v>
+      </c>
+      <c r="V15" s="8">
         <f t="shared" si="6"/>
-        <v>0.23824994585228515</v>
-      </c>
-      <c r="V15" s="8">
+        <v>2.7290448343079921</v>
+      </c>
+      <c r="W15" s="8">
+        <v>0</v>
+      </c>
+      <c r="X15" s="9">
         <f t="shared" si="7"/>
-        <v>2.7290448343079921</v>
-      </c>
-      <c r="W15" s="8">
-        <v>0</v>
-      </c>
-      <c r="X15" s="9">
+        <v>12.475633528265108</v>
+      </c>
+      <c r="Y15" s="9">
         <f t="shared" si="8"/>
-        <v>12.475633528265108</v>
-      </c>
-      <c r="Y15" s="9">
+        <v>4.4290189490588876</v>
+      </c>
+      <c r="Z15" s="9">
         <f t="shared" si="9"/>
-        <v>4.4290189490588876</v>
-      </c>
-      <c r="Z15" s="9">
-        <f t="shared" si="10"/>
         <v>16.764132553606238</v>
       </c>
       <c r="AA15" s="9">
@@ -13182,70 +13186,70 @@
       <c r="AD15" s="8"/>
       <c r="AE15" s="8"/>
       <c r="AF15">
+        <f t="shared" si="10"/>
+        <v>1.8518518518518516</v>
+      </c>
+      <c r="AG15">
         <f t="shared" si="11"/>
-        <v>1.8518518518518516</v>
-      </c>
-      <c r="AG15">
-        <f t="shared" si="12"/>
         <v>9.7465886939571034E-2</v>
       </c>
       <c r="AH15">
         <v>1</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="21"/>
+        <f>((1/(G15*H15*I15))-1)*(1-Q15)</f>
         <v>8.5185185185185142E-2</v>
       </c>
       <c r="AJ15">
+        <f t="shared" si="12"/>
+        <v>0.7666666666666665</v>
+      </c>
+      <c r="AK15">
         <f t="shared" si="13"/>
-        <v>0.7666666666666665</v>
-      </c>
-      <c r="AK15">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AL15">
         <f t="shared" si="14"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AL15">
+        <v>0.8771929824561393</v>
+      </c>
+      <c r="AM15">
         <f t="shared" si="15"/>
-        <v>0.8771929824561393</v>
-      </c>
-      <c r="AM15">
+        <v>9</v>
+      </c>
+      <c r="AN15">
+        <f>AI15*((O15/P15)-1)</f>
+        <v>0.76666666666666627</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="0"/>
+        <v>6.8999999999999986</v>
+      </c>
+      <c r="AP15">
         <f t="shared" si="16"/>
-        <v>9</v>
-      </c>
-      <c r="AN15">
-        <f t="shared" si="0"/>
-        <v>0.76666666666666627</v>
-      </c>
-      <c r="AO15">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="AQ15">
         <f t="shared" si="1"/>
-        <v>6.8999999999999986</v>
-      </c>
-      <c r="AP15">
+        <v>4</v>
+      </c>
+      <c r="AR15">
         <f t="shared" si="17"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="AQ15">
+        <v>2.5</v>
+      </c>
+      <c r="AS15">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AR15">
+        <v>2.5</v>
+      </c>
+      <c r="AT15">
         <f t="shared" si="18"/>
-        <v>2.5</v>
-      </c>
-      <c r="AS15">
+        <v>24.160446282825404</v>
+      </c>
+      <c r="AU15">
+        <f>U15+W15+Y15+AA15+AC15+AE15+AG15+AI15+AJ15+AL15+AN15+AO15+AP15+AQ15+AR15+AS15</f>
+        <v>24.160446282825401</v>
+      </c>
+      <c r="AV15">
         <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="AT15">
-        <f t="shared" si="19"/>
-        <v>24.160446282825404</v>
-      </c>
-      <c r="AU15">
-        <f t="shared" si="20"/>
-        <v>24.160446282825401</v>
-      </c>
-      <c r="AV15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13353,58 +13357,58 @@
         <v>0</v>
       </c>
       <c r="AF16">
+        <f t="shared" si="10"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="AG16">
         <f t="shared" si="11"/>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="AG16">
-        <f t="shared" si="12"/>
         <v>0.21929824561403483</v>
       </c>
       <c r="AH16">
         <v>1</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="21"/>
+        <f>((1/(G16*H16*I16))-1)*(1-Q16)</f>
         <v>3.1666666666666661</v>
       </c>
       <c r="AJ16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK16">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK16">
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="AL16">
         <f t="shared" si="14"/>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="AL16">
+        <v>0.21929824561403483</v>
+      </c>
+      <c r="AM16">
         <f t="shared" si="15"/>
-        <v>0.21929824561403483</v>
-      </c>
-      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <f>AI16*((O16/P16)-1)</f>
+        <v>3.1666666666666661</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP16">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AN16">
-        <f t="shared" si="0"/>
-        <v>3.1666666666666661</v>
-      </c>
-      <c r="AO16">
+      <c r="AQ16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP16">
+      <c r="AR16">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="AQ16">
+      <c r="AS16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AS16">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT16">
@@ -13416,7 +13420,7 @@
         <v>13.901734641941319</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13479,115 +13483,115 @@
         <v>0</v>
       </c>
       <c r="T17" s="8">
-        <f t="shared" ref="T17:T23" si="22">0.82*B17*(1/(B17*F17*G17*H17*I17))*(O17/P17)</f>
+        <f t="shared" ref="T17:T22" si="19">0.82*B17*(1/(B17*F17*G17*H17*I17))*(O17/P17)</f>
         <v>7.1929824561403501</v>
       </c>
       <c r="U17" s="8">
-        <f t="shared" ref="U17:U22" si="23">0.82*(1/(G17*H17*I17*F17*E17))*((1/B17)-1)*(O17/P17)</f>
+        <f t="shared" ref="U17:U22" si="20">0.82*(1/(G17*H17*I17*F17*E17))*((1/B17)-1)*(O17/P17)</f>
         <v>3.7552404603594205</v>
       </c>
       <c r="V17" s="8">
-        <f t="shared" ref="V17:V22" si="24">0.82*(AF17/F17)*(O17/P17)</f>
+        <f t="shared" ref="V17:V22" si="21">0.82*(AF17/F17)*(O17/P17)</f>
         <v>7.1929824561403493</v>
       </c>
       <c r="W17" s="8">
         <v>0</v>
       </c>
       <c r="X17" s="9">
-        <f t="shared" ref="X17:X23" si="25">0.1*C17*(1/(C17*F17*G17*H17*I17))*(O17/P17)</f>
+        <f t="shared" ref="X17:X22" si="22">0.1*C17*(1/(C17*F17*G17*H17*I17))*(O17/P17)</f>
         <v>0.8771929824561403</v>
       </c>
       <c r="Y17" s="9">
-        <f t="shared" ref="Y17:Y23" si="26">0.1*(1-C17)*(1/(C17*F17*G17*H17*I17))*(O17/P17)</f>
+        <f t="shared" ref="Y17:Y22" si="23">0.1*(1-C17)*(1/(C17*F17*G17*H17*I17))*(O17/P17)</f>
         <v>0.89491405280878966</v>
       </c>
       <c r="Z17" s="9">
-        <f t="shared" ref="Z17:Z22" si="27">0.1*(AF17/F17)*(O17/P17)</f>
+        <f t="shared" ref="Z17:Z22" si="24">0.1*(AF17/F17)*(O17/P17)</f>
         <v>0.8771929824561403</v>
       </c>
       <c r="AA17" s="9">
         <v>0</v>
       </c>
       <c r="AB17" s="8">
-        <f t="shared" ref="AB17:AB22" si="28">0.04*(1/(F17*G17*H17*I17))*(O17/P17)</f>
+        <f t="shared" ref="AB17:AB22" si="25">0.04*(1/(F17*G17*H17*I17))*(O17/P17)</f>
         <v>0.35087719298245612</v>
       </c>
       <c r="AC17" s="8">
-        <f t="shared" ref="AC17:AC21" si="29">0.04*(1-D17)*(1/(D17*F17*G17*H17*I17))*(O17/P17)</f>
+        <f t="shared" ref="AC17:AC21" si="26">0.04*(1-D17)*(1/(D17*F17*G17*H17*I17))*(O17/P17)</f>
         <v>0.23982515210585387</v>
       </c>
       <c r="AD17" s="8">
-        <f t="shared" ref="AD17:AD22" si="30">0.04*(AF17/F17)*(O17/P17)</f>
+        <f t="shared" ref="AD17:AD22" si="27">0.04*(AF17/F17)*(O17/P17)</f>
         <v>0.35087719298245612</v>
       </c>
       <c r="AE17" s="8">
         <v>0</v>
       </c>
       <c r="AF17">
+        <f t="shared" si="10"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="AG17">
         <f t="shared" si="11"/>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="AG17">
-        <f t="shared" si="12"/>
         <v>0.21929824561403483</v>
       </c>
       <c r="AH17">
         <v>1</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="21"/>
+        <f>((1/(G17*H17*I17))-1)*(1-Q17)</f>
         <v>0.31666666666666654</v>
       </c>
       <c r="AJ17">
+        <f t="shared" si="12"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="AK17">
         <f t="shared" si="13"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="14"/>
+        <v>0.21929824561403483</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <f>AI17*((O17/P17)-1)</f>
+        <v>0.31666666666666654</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="0"/>
         <v>2.8499999999999996</v>
       </c>
-      <c r="AK17">
-        <f t="shared" si="14"/>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="AL17">
-        <f t="shared" si="15"/>
-        <v>0.21929824561403483</v>
-      </c>
-      <c r="AM17">
+      <c r="AP17">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AN17">
-        <f t="shared" si="0"/>
-        <v>0.31666666666666654</v>
-      </c>
-      <c r="AO17">
+      <c r="AQ17">
         <f t="shared" si="1"/>
-        <v>2.8499999999999996</v>
-      </c>
-      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="AQ17">
+      <c r="AS17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR17">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AS17">
+      <c r="AT17">
+        <f t="shared" ref="AT17:AT22" si="28">(T17+X17+AB17+AB17+U17+Y17+AC17+AC17)</f>
+        <v>13.901734641941321</v>
+      </c>
+      <c r="AU17">
+        <f>U17+W17+Y17+AA17+AC17+AC17+AE17+AG17+AI17+AJ17+AL17+AN17+AO17+AP17+AQ17+AR17+AS17</f>
+        <v>13.901734641941319</v>
+      </c>
+      <c r="AV17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <f t="shared" ref="AT17:AT22" si="31">(T17+X17+AB17+AB17+U17+Y17+AC17+AC17)</f>
-        <v>13.901734641941321</v>
-      </c>
-      <c r="AU17">
-        <f t="shared" ref="AU17:AU22" si="32">U17+W17+Y17+AA17+AC17+AC17+AE17+AG17+AI17+AJ17+AL17+AN17+AO17+AP17+AQ17+AR17+AS17</f>
-        <v>13.901734641941319</v>
-      </c>
-      <c r="AV17">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13650,115 +13654,115 @@
         <v>0</v>
       </c>
       <c r="T18" s="8">
+        <f t="shared" si="19"/>
+        <v>3.6745759673769349</v>
+      </c>
+      <c r="U18" s="8">
+        <f t="shared" si="20"/>
+        <v>1.9183859312180951</v>
+      </c>
+      <c r="V18" s="8">
+        <f t="shared" si="21"/>
+        <v>3.6745759673769349</v>
+      </c>
+      <c r="W18" s="8">
+        <v>0</v>
+      </c>
+      <c r="X18" s="9">
         <f t="shared" si="22"/>
-        <v>3.6745759673769349</v>
-      </c>
-      <c r="U18" s="8">
+        <v>0.44811902041182139</v>
+      </c>
+      <c r="Y18" s="9">
         <f t="shared" si="23"/>
-        <v>1.9183859312180951</v>
-      </c>
-      <c r="V18" s="8">
+        <v>0.45717192991509054</v>
+      </c>
+      <c r="Z18" s="9">
         <f t="shared" si="24"/>
-        <v>3.6745759673769349</v>
-      </c>
-      <c r="W18" s="8">
-        <v>0</v>
-      </c>
-      <c r="X18" s="9">
+        <v>0.44811902041182139</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="8">
         <f t="shared" si="25"/>
-        <v>0.44811902041182139</v>
-      </c>
-      <c r="Y18" s="9">
+        <v>0.17924760816472854</v>
+      </c>
+      <c r="AC18" s="8">
         <f t="shared" si="26"/>
-        <v>0.45717192991509054</v>
-      </c>
-      <c r="Z18" s="9">
+        <v>0.12251604194424209</v>
+      </c>
+      <c r="AD18" s="8">
         <f t="shared" si="27"/>
-        <v>0.44811902041182139</v>
-      </c>
-      <c r="AA18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="8">
-        <f t="shared" si="28"/>
         <v>0.17924760816472854</v>
       </c>
-      <c r="AC18" s="8">
-        <f t="shared" si="29"/>
-        <v>0.12251604194424209</v>
-      </c>
-      <c r="AD18" s="8">
-        <f t="shared" si="30"/>
-        <v>0.17924760816472854</v>
-      </c>
       <c r="AE18" s="8">
         <v>0</v>
       </c>
       <c r="AF18">
+        <f t="shared" si="10"/>
+        <v>2.1285653469561514</v>
+      </c>
+      <c r="AG18">
         <f t="shared" si="11"/>
-        <v>2.1285653469561514</v>
-      </c>
-      <c r="AG18">
-        <f t="shared" si="12"/>
         <v>0.11202975510295521</v>
       </c>
       <c r="AH18">
         <v>1</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="21"/>
+        <f>((1/(G18*H18*I18))-1)*(1-Q18)</f>
         <v>1.1285653469561514</v>
       </c>
       <c r="AJ18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK18">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK18">
+        <v>2.1285653469561514</v>
+      </c>
+      <c r="AL18">
         <f t="shared" si="14"/>
-        <v>2.1285653469561514</v>
-      </c>
-      <c r="AL18">
+        <v>0.11202975510295521</v>
+      </c>
+      <c r="AM18">
         <f t="shared" si="15"/>
-        <v>0.11202975510295521</v>
-      </c>
-      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <f>AI18*((O18/P18)-1)</f>
+        <v>1.1285653469561514</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP18">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AN18">
-        <f t="shared" si="0"/>
-        <v>1.1285653469561514</v>
-      </c>
-      <c r="AO18">
+      <c r="AQ18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP18">
+      <c r="AR18">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="AQ18">
+      <c r="AS18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR18">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AS18">
+      <c r="AT18">
+        <f t="shared" si="28"/>
+        <v>7.1017801491398833</v>
+      </c>
+      <c r="AU18">
+        <f>U18+W18+Y18+AA18+AC18+AC18+AE18+AG18+AI18+AJ18+AL18+AN18+AO18+AP18+AQ18+AR18+AS18</f>
+        <v>7.1017801491398824</v>
+      </c>
+      <c r="AV18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <f t="shared" si="31"/>
-        <v>7.1017801491398833</v>
-      </c>
-      <c r="AU18">
-        <f t="shared" si="32"/>
-        <v>7.1017801491398824</v>
-      </c>
-      <c r="AV18">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13821,115 +13825,115 @@
         <v>0</v>
       </c>
       <c r="T19" s="8">
+        <f t="shared" si="19"/>
+        <v>3.5964912280701751</v>
+      </c>
+      <c r="U19" s="8">
+        <f t="shared" si="20"/>
+        <v>1.8776202301797102</v>
+      </c>
+      <c r="V19" s="8">
+        <f t="shared" si="21"/>
+        <v>3.5964912280701746</v>
+      </c>
+      <c r="W19" s="8">
+        <v>0</v>
+      </c>
+      <c r="X19" s="9">
         <f t="shared" si="22"/>
-        <v>3.5964912280701751</v>
-      </c>
-      <c r="U19" s="8">
+        <v>0.43859649122807015</v>
+      </c>
+      <c r="Y19" s="9">
         <f t="shared" si="23"/>
-        <v>1.8776202301797102</v>
-      </c>
-      <c r="V19" s="8">
+        <v>0.44745702640439483</v>
+      </c>
+      <c r="Z19" s="9">
         <f t="shared" si="24"/>
-        <v>3.5964912280701746</v>
-      </c>
-      <c r="W19" s="8">
-        <v>0</v>
-      </c>
-      <c r="X19" s="9">
+        <v>0.43859649122807015</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="8">
         <f t="shared" si="25"/>
-        <v>0.43859649122807015</v>
-      </c>
-      <c r="Y19" s="9">
+        <v>0.17543859649122806</v>
+      </c>
+      <c r="AC19" s="8">
         <f t="shared" si="26"/>
-        <v>0.44745702640439483</v>
-      </c>
-      <c r="Z19" s="9">
+        <v>0.11991257605292693</v>
+      </c>
+      <c r="AD19" s="8">
         <f t="shared" si="27"/>
-        <v>0.43859649122807015</v>
-      </c>
-      <c r="AA19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="8">
-        <f t="shared" si="28"/>
         <v>0.17543859649122806</v>
       </c>
-      <c r="AC19" s="8">
-        <f t="shared" si="29"/>
-        <v>0.11991257605292693</v>
-      </c>
-      <c r="AD19" s="8">
-        <f t="shared" si="30"/>
-        <v>0.17543859649122806</v>
-      </c>
       <c r="AE19" s="8">
         <v>0</v>
       </c>
       <c r="AF19">
+        <f t="shared" si="10"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="AG19">
         <f t="shared" si="11"/>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="AG19">
-        <f t="shared" si="12"/>
         <v>0.21929824561403483</v>
       </c>
       <c r="AH19">
         <v>1</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="21"/>
+        <f>((1/(G19*H19*I19))-1)*(1-Q19)</f>
         <v>3.1666666666666661</v>
       </c>
       <c r="AJ19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
+        <f>AI19*((O19/P19)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP19">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO19">
+      <c r="AQ19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP19">
+      <c r="AR19">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AS19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR19">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AS19">
+      <c r="AT19">
+        <f t="shared" si="28"/>
+        <v>6.9508673209706604</v>
+      </c>
+      <c r="AU19">
+        <f>U19+W19+Y19+AA19+AC19+AC19+AE19+AG19+AI19+AJ19+AL19+AN19+AO19+AP19+AQ19+AR19+AS19</f>
+        <v>6.9508673209706595</v>
+      </c>
+      <c r="AV19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT19">
-        <f t="shared" si="31"/>
-        <v>6.9508673209706604</v>
-      </c>
-      <c r="AU19">
-        <f t="shared" si="32"/>
-        <v>6.9508673209706595</v>
-      </c>
-      <c r="AV19">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13992,115 +13996,115 @@
         <v>0</v>
       </c>
       <c r="T20" s="8">
+        <f t="shared" si="19"/>
+        <v>7.1929824561403501</v>
+      </c>
+      <c r="U20" s="8">
+        <f t="shared" si="20"/>
+        <v>3.7552404603594205</v>
+      </c>
+      <c r="V20" s="8">
+        <f t="shared" si="21"/>
+        <v>7.1929824561403493</v>
+      </c>
+      <c r="W20" s="8">
+        <v>0</v>
+      </c>
+      <c r="X20" s="9">
         <f t="shared" si="22"/>
-        <v>7.1929824561403501</v>
-      </c>
-      <c r="U20" s="8">
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="Y20" s="9">
         <f t="shared" si="23"/>
-        <v>3.7552404603594205</v>
-      </c>
-      <c r="V20" s="8">
+        <v>0.89491405280878966</v>
+      </c>
+      <c r="Z20" s="9">
         <f t="shared" si="24"/>
-        <v>7.1929824561403493</v>
-      </c>
-      <c r="W20" s="8">
-        <v>0</v>
-      </c>
-      <c r="X20" s="9">
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="8">
         <f t="shared" si="25"/>
-        <v>0.8771929824561403</v>
-      </c>
-      <c r="Y20" s="9">
+        <v>0.35087719298245612</v>
+      </c>
+      <c r="AC20" s="8">
         <f t="shared" si="26"/>
-        <v>0.89491405280878966</v>
-      </c>
-      <c r="Z20" s="9">
+        <v>0.23982515210585387</v>
+      </c>
+      <c r="AD20" s="8">
         <f t="shared" si="27"/>
-        <v>0.8771929824561403</v>
-      </c>
-      <c r="AA20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="8">
-        <f t="shared" si="28"/>
         <v>0.35087719298245612</v>
       </c>
-      <c r="AC20" s="8">
-        <f t="shared" si="29"/>
-        <v>0.23982515210585387</v>
-      </c>
-      <c r="AD20" s="8">
-        <f t="shared" si="30"/>
-        <v>0.35087719298245612</v>
-      </c>
       <c r="AE20" s="8">
         <v>0</v>
       </c>
       <c r="AF20">
+        <f t="shared" si="10"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="AG20">
         <f t="shared" si="11"/>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="AG20">
-        <f t="shared" si="12"/>
         <v>0.21929824561403483</v>
       </c>
       <c r="AH20">
         <v>1</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="21"/>
+        <f>((1/(G20*H20*I20))-1)*(1-Q20)</f>
         <v>3.1666666666666661</v>
       </c>
       <c r="AJ20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK20">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK20">
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="AL20">
         <f t="shared" si="14"/>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="AL20">
+        <v>0.21929824561403483</v>
+      </c>
+      <c r="AM20">
         <f t="shared" si="15"/>
-        <v>0.21929824561403483</v>
-      </c>
-      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <f>AI20*((O20/P20)-1)</f>
+        <v>3.1666666666666661</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP20">
         <f t="shared" si="16"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="AR20">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="AN20">
-        <f t="shared" si="0"/>
-        <v>3.1666666666666661</v>
-      </c>
-      <c r="AO20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <f t="shared" si="17"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AQ20">
+      <c r="AS20">
         <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="AR20">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <f t="shared" si="28"/>
+        <v>13.901734641941321</v>
+      </c>
+      <c r="AU20">
+        <f>U20+W20+Y20+AA20+AC20+AC20+AE20+AG20+AI20+AJ20+AL20+AN20+AO20+AP20+AQ20+AR20+AS20</f>
+        <v>13.901734641941319</v>
+      </c>
+      <c r="AV20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT20">
-        <f t="shared" si="31"/>
-        <v>13.901734641941321</v>
-      </c>
-      <c r="AU20">
-        <f t="shared" si="32"/>
-        <v>13.901734641941319</v>
-      </c>
-      <c r="AV20">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14163,115 +14167,115 @@
         <v>0.5</v>
       </c>
       <c r="T21" s="8">
+        <f t="shared" si="19"/>
+        <v>7.1929824561403501</v>
+      </c>
+      <c r="U21" s="8">
+        <f t="shared" si="20"/>
+        <v>3.7552404603594205</v>
+      </c>
+      <c r="V21" s="8">
+        <f t="shared" si="21"/>
+        <v>7.1929824561403493</v>
+      </c>
+      <c r="W21" s="8">
+        <v>0</v>
+      </c>
+      <c r="X21" s="9">
         <f t="shared" si="22"/>
-        <v>7.1929824561403501</v>
-      </c>
-      <c r="U21" s="8">
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="Y21" s="9">
         <f t="shared" si="23"/>
-        <v>3.7552404603594205</v>
-      </c>
-      <c r="V21" s="8">
+        <v>0.89491405280878966</v>
+      </c>
+      <c r="Z21" s="9">
         <f t="shared" si="24"/>
-        <v>7.1929824561403493</v>
-      </c>
-      <c r="W21" s="8">
-        <v>0</v>
-      </c>
-      <c r="X21" s="9">
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="8">
         <f t="shared" si="25"/>
-        <v>0.8771929824561403</v>
-      </c>
-      <c r="Y21" s="9">
+        <v>0.35087719298245612</v>
+      </c>
+      <c r="AC21" s="8">
         <f t="shared" si="26"/>
-        <v>0.89491405280878966</v>
-      </c>
-      <c r="Z21" s="9">
+        <v>0.23982515210585387</v>
+      </c>
+      <c r="AD21" s="8">
         <f t="shared" si="27"/>
-        <v>0.8771929824561403</v>
-      </c>
-      <c r="AA21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="8">
-        <f t="shared" si="28"/>
         <v>0.35087719298245612</v>
       </c>
-      <c r="AC21" s="8">
-        <f t="shared" si="29"/>
-        <v>0.23982515210585387</v>
-      </c>
-      <c r="AD21" s="8">
-        <f t="shared" si="30"/>
-        <v>0.35087719298245612</v>
-      </c>
       <c r="AE21" s="8">
         <v>0</v>
       </c>
       <c r="AF21">
+        <f t="shared" si="10"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="AG21">
         <f t="shared" si="11"/>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="AG21">
-        <f t="shared" si="12"/>
         <v>0.21929824561403483</v>
       </c>
       <c r="AH21">
         <v>1</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="21"/>
+        <f>((1/(G21*H21*I21))-1)*(1-Q21)</f>
         <v>3.1666666666666661</v>
       </c>
       <c r="AJ21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK21">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK21">
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="AL21">
         <f t="shared" si="14"/>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="AL21">
+        <v>0.21929824561403483</v>
+      </c>
+      <c r="AM21">
         <f t="shared" si="15"/>
-        <v>0.21929824561403483</v>
-      </c>
-      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <f>AI21*((O21/P21)-1)</f>
+        <v>3.1666666666666661</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP21">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AN21">
-        <f t="shared" si="0"/>
-        <v>3.1666666666666661</v>
-      </c>
-      <c r="AO21">
+      <c r="AQ21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP21">
+      <c r="AR21">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="AQ21">
+        <v>0.5</v>
+      </c>
+      <c r="AS21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
-      <c r="AS21">
+      <c r="AT21">
+        <f t="shared" si="28"/>
+        <v>13.901734641941321</v>
+      </c>
+      <c r="AU21">
+        <f>U21+W21+Y21+AA21+AC21+AC21+AE21+AG21+AI21+AJ21+AL21+AN21+AO21+AP21+AQ21+AR21+AS21</f>
+        <v>13.901734641941319</v>
+      </c>
+      <c r="AV21">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="AT21">
-        <f t="shared" si="31"/>
-        <v>13.901734641941321</v>
-      </c>
-      <c r="AU21">
-        <f t="shared" si="32"/>
-        <v>13.901734641941319</v>
-      </c>
-      <c r="AV21">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14334,37 +14338,37 @@
         <v>0.5</v>
       </c>
       <c r="T22" s="8">
+        <f t="shared" si="19"/>
+        <v>1.8372879836884675</v>
+      </c>
+      <c r="U22" s="8">
+        <f t="shared" si="20"/>
+        <v>0.95919296560904754</v>
+      </c>
+      <c r="V22" s="8">
+        <f t="shared" si="21"/>
+        <v>1.8372879836884675</v>
+      </c>
+      <c r="W22" s="8">
+        <v>0</v>
+      </c>
+      <c r="X22" s="9">
         <f t="shared" si="22"/>
-        <v>1.8372879836884675</v>
-      </c>
-      <c r="U22" s="8">
+        <v>0.22405951020591069</v>
+      </c>
+      <c r="Y22" s="9">
         <f t="shared" si="23"/>
-        <v>0.95919296560904754</v>
-      </c>
-      <c r="V22" s="8">
+        <v>0.22858596495754527</v>
+      </c>
+      <c r="Z22" s="9">
         <f t="shared" si="24"/>
-        <v>1.8372879836884675</v>
-      </c>
-      <c r="W22" s="8">
-        <v>0</v>
-      </c>
-      <c r="X22" s="9">
+        <v>0.22405951020591069</v>
+      </c>
+      <c r="AA22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="8">
         <f t="shared" si="25"/>
-        <v>0.22405951020591069</v>
-      </c>
-      <c r="Y22" s="9">
-        <f t="shared" si="26"/>
-        <v>0.22858596495754527</v>
-      </c>
-      <c r="Z22" s="9">
-        <f t="shared" si="27"/>
-        <v>0.22405951020591069</v>
-      </c>
-      <c r="AA22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="8">
-        <f t="shared" si="28"/>
         <v>8.962380408236427E-2</v>
       </c>
       <c r="AC22" s="8">
@@ -14372,77 +14376,77 @@
         <v>6.1258020972121047E-2</v>
       </c>
       <c r="AD22" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>8.962380408236427E-2</v>
       </c>
       <c r="AE22" s="8">
         <v>0</v>
       </c>
       <c r="AF22">
+        <f t="shared" si="10"/>
+        <v>2.1285653469561514</v>
+      </c>
+      <c r="AG22">
         <f t="shared" si="11"/>
-        <v>2.1285653469561514</v>
-      </c>
-      <c r="AG22">
-        <f t="shared" si="12"/>
         <v>0.11202975510295521</v>
       </c>
       <c r="AH22">
         <v>1</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="21"/>
+        <f>((1/(G22*H22*I22))-1)*(1-Q22)</f>
         <v>0.11285653469561512</v>
       </c>
       <c r="AJ22">
+        <f t="shared" si="12"/>
+        <v>1.0157088122605362</v>
+      </c>
+      <c r="AK22">
         <f t="shared" si="13"/>
-        <v>1.0157088122605362</v>
-      </c>
-      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
+        <f>AI22*((O22/P22)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP22">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO22">
+      <c r="AQ22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP22">
+      <c r="AR22">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ22">
+        <v>0.5</v>
+      </c>
+      <c r="AS22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
-      <c r="AS22">
+      <c r="AT22">
+        <f t="shared" si="28"/>
+        <v>3.5508900745699417</v>
+      </c>
+      <c r="AU22">
+        <f>U22+W22+Y22+AA22+AC22+AC22+AE22+AG22+AI22+AJ22+AL22+AN22+AO22+AP22+AQ22+AR22+AS22</f>
+        <v>3.5508900745699412</v>
+      </c>
+      <c r="AV22">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="AT22">
-        <f t="shared" si="31"/>
-        <v>3.5508900745699417</v>
-      </c>
-      <c r="AU22">
-        <f t="shared" si="32"/>
-        <v>3.5508900745699412</v>
-      </c>
-      <c r="AV22">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14550,58 +14554,58 @@
         <v>0</v>
       </c>
       <c r="AF23">
+        <f t="shared" si="10"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="AG23">
         <f t="shared" si="11"/>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="AG23">
-        <f t="shared" si="12"/>
         <v>0.17543859649122787</v>
       </c>
       <c r="AH23">
         <v>1</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="21"/>
+        <f>((1/(G23*H23*I23))-1)*(1-Q23)</f>
         <v>2.333333333333333</v>
       </c>
       <c r="AJ23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK23">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK23">
+        <v>13.333333333333332</v>
+      </c>
+      <c r="AL23">
         <f t="shared" si="14"/>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="AL23">
+        <v>0.70175438596491146</v>
+      </c>
+      <c r="AM23">
         <f t="shared" si="15"/>
-        <v>0.70175438596491146</v>
-      </c>
-      <c r="AM23">
+        <v>4</v>
+      </c>
+      <c r="AN23">
+        <f>AI23*((O23/P23)-1)</f>
+        <v>9.3333333333333321</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP23">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="AN23">
-        <f t="shared" si="0"/>
-        <v>9.3333333333333321</v>
-      </c>
-      <c r="AO23">
+      <c r="AQ23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP23">
+      <c r="AR23">
         <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AS23">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AS23">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT23">
@@ -14609,11 +14613,11 @@
         <v>25.58003441962747</v>
       </c>
       <c r="AU23">
-        <f t="shared" si="20"/>
+        <f>U23+W23+Y23+AA23+AC23+AE23+AG23+AI23+AJ23+AL23+AN23+AO23+AP23+AQ23+AR23+AS23</f>
         <v>25.580034419627466</v>
       </c>
       <c r="AV23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14676,115 +14680,115 @@
         <v>0</v>
       </c>
       <c r="T24" s="8">
-        <f t="shared" ref="T24:T28" si="33">0.8*(1/(F24*G24*H24*I24))*(O24/P24)</f>
+        <f t="shared" ref="T24:T28" si="29">0.8*(1/(F24*G24*H24*I24))*(O24/P24)</f>
         <v>14.035087719298245</v>
       </c>
       <c r="U24" s="8">
-        <f t="shared" ref="U24:U29" si="34">0.8*(1/(G24*H24*I24*F24*E24))*((1/B24)-1)*(O24/P24)</f>
+        <f t="shared" ref="U24:U29" si="30">0.8*(1/(G24*H24*I24*F24*E24))*((1/B24)-1)*(O24/P24)</f>
         <v>5.7048387494756581</v>
       </c>
       <c r="V24" s="8">
-        <f t="shared" ref="V24:V29" si="35">0.8*(AF24/F24)*(O24/P24)</f>
+        <f t="shared" ref="V24:V29" si="31">0.8*(AF24/F24)*(O24/P24)</f>
         <v>14.035087719298245</v>
       </c>
       <c r="W24" s="8">
         <v>0</v>
       </c>
       <c r="X24" s="9">
-        <f t="shared" ref="X24:X29" si="36">0.01*C24*(1/(C24*F24*G24*H24*I24))*(O24/P24)</f>
+        <f t="shared" ref="X24:X29" si="32">0.01*C24*(1/(C24*F24*G24*H24*I24))*(O24/P24)</f>
         <v>0.17543859649122806</v>
       </c>
       <c r="Y24" s="9">
-        <f t="shared" ref="Y24:Y30" si="37">0.01*(1-C24)*(1/(C24*F24*G24*H24*I24))*(O24/P24)</f>
+        <f t="shared" ref="Y24:Y29" si="33">0.01*(1-C24)*(1/(C24*F24*G24*H24*I24))*(O24/P24)</f>
         <v>5.29970760233918E-2</v>
       </c>
       <c r="Z24" s="9">
-        <f t="shared" ref="Z24:Z29" si="38">0.01*(AF24/F24)*(O24/P24)</f>
+        <f t="shared" ref="Z24:Z29" si="34">0.01*(AF24/F24)*(O24/P24)</f>
         <v>0.17543859649122806</v>
       </c>
       <c r="AA24" s="9">
         <v>0</v>
       </c>
       <c r="AB24" s="8">
-        <f t="shared" ref="AB24:AB29" si="39">0.19*(1/(F24*G24*H24*I24))*(O24/P24)</f>
+        <f t="shared" ref="AB24:AB29" si="35">0.19*(1/(F24*G24*H24*I24))*(O24/P24)</f>
         <v>3.333333333333333</v>
       </c>
       <c r="AC24" s="8">
-        <f t="shared" ref="AC24:AC29" si="40">0.19*(1-D24)*(1/(D24*F24*G24*H24*I24))*(O24/P24)</f>
+        <f t="shared" ref="AC24:AC29" si="36">0.19*(1-D24)*(1/(D24*F24*G24*H24*I24))*(O24/P24)</f>
         <v>2.2783389450056117</v>
       </c>
       <c r="AD24" s="8">
-        <f t="shared" ref="AD24:AD29" si="41">0.19*(AF24/F24)*(O24/P24)</f>
+        <f t="shared" ref="AD24:AD29" si="37">0.19*(AF24/F24)*(O24/P24)</f>
         <v>3.333333333333333</v>
       </c>
       <c r="AE24" s="8">
         <v>0</v>
       </c>
       <c r="AF24">
+        <f t="shared" si="10"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="AG24">
         <f t="shared" si="11"/>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="AG24">
-        <f t="shared" si="12"/>
         <v>0.17543859649122787</v>
       </c>
       <c r="AH24">
         <v>1</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="21"/>
+        <f>((1/(G24*H24*I24))-1)*(1-Q24)</f>
         <v>0.23333333333333325</v>
       </c>
       <c r="AJ24">
+        <f t="shared" si="12"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="AK24">
         <f t="shared" si="13"/>
-        <v>2.0999999999999996</v>
-      </c>
-      <c r="AK24">
+        <v>13.333333333333332</v>
+      </c>
+      <c r="AL24">
         <f t="shared" si="14"/>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="AL24">
+        <v>0.70175438596491146</v>
+      </c>
+      <c r="AM24">
         <f t="shared" si="15"/>
-        <v>0.70175438596491146</v>
-      </c>
-      <c r="AM24">
+        <v>4</v>
+      </c>
+      <c r="AN24">
+        <f>AI24*((O24/P24)-1)</f>
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="0"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="AP24">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="AN24">
-        <f t="shared" si="0"/>
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="AO24">
+      <c r="AQ24">
         <f t="shared" si="1"/>
-        <v>8.3999999999999986</v>
-      </c>
-      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
         <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AS24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR24">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AS24">
+      <c r="AT24">
+        <f t="shared" ref="AT24:AT29" si="38">(T24+X24+AB24+U24+Y24+AC24)</f>
+        <v>25.580034419627466</v>
+      </c>
+      <c r="AU24">
+        <f>U24+W24+Y24+AA24+AC24+AE24+AG24+AI24+AJ24+AL24+AN24+AO24+AP24+AQ24+AR24+AS24</f>
+        <v>25.580034419627466</v>
+      </c>
+      <c r="AV24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT24">
-        <f t="shared" ref="AT24:AT29" si="42">(T24+X24+AB24+U24+Y24+AC24)</f>
-        <v>25.580034419627466</v>
-      </c>
-      <c r="AU24">
-        <f t="shared" si="20"/>
-        <v>25.580034419627466</v>
-      </c>
-      <c r="AV24">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14847,30 +14851,30 @@
         <v>0</v>
       </c>
       <c r="T25" s="8">
+        <f t="shared" si="29"/>
+        <v>7.7972709551656916</v>
+      </c>
+      <c r="U25" s="8">
+        <f t="shared" si="30"/>
+        <v>3.1693548608198094</v>
+      </c>
+      <c r="V25" s="8">
+        <f t="shared" si="31"/>
+        <v>7.7972709551656916</v>
+      </c>
+      <c r="W25" s="8">
+        <v>0</v>
+      </c>
+      <c r="X25" s="9">
+        <f t="shared" si="32"/>
+        <v>9.7465886939571145E-2</v>
+      </c>
+      <c r="Y25" s="9">
         <f t="shared" si="33"/>
-        <v>7.7972709551656916</v>
-      </c>
-      <c r="U25" s="8">
+        <v>2.944282001299545E-2</v>
+      </c>
+      <c r="Z25" s="9">
         <f t="shared" si="34"/>
-        <v>3.1693548608198094</v>
-      </c>
-      <c r="V25" s="8">
-        <f t="shared" si="35"/>
-        <v>7.7972709551656916</v>
-      </c>
-      <c r="W25" s="8">
-        <v>0</v>
-      </c>
-      <c r="X25" s="9">
-        <f t="shared" si="36"/>
-        <v>9.7465886939571145E-2</v>
-      </c>
-      <c r="Y25" s="9">
-        <f t="shared" si="37"/>
-        <v>2.944282001299545E-2</v>
-      </c>
-      <c r="Z25" s="9">
-        <f t="shared" si="38"/>
         <v>9.7465886939571145E-2</v>
       </c>
       <c r="AA25" s="9">
@@ -14881,81 +14885,81 @@
         <v>1.8518518518518516</v>
       </c>
       <c r="AC25" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>1.2657438583364511</v>
       </c>
       <c r="AD25" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>1.8518518518518516</v>
       </c>
       <c r="AE25" s="8">
         <v>0</v>
       </c>
       <c r="AF25">
+        <f t="shared" si="10"/>
+        <v>1.8518518518518516</v>
+      </c>
+      <c r="AG25">
         <f t="shared" si="11"/>
-        <v>1.8518518518518516</v>
-      </c>
-      <c r="AG25">
-        <f t="shared" si="12"/>
         <v>9.7465886939571034E-2</v>
       </c>
       <c r="AH25">
         <v>1</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="21"/>
+        <f>((1/(G25*H25*I25))-1)*(1-Q25)</f>
         <v>0.85185185185185164</v>
       </c>
       <c r="AJ25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK25">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK25">
+        <v>7.4074074074074066</v>
+      </c>
+      <c r="AL25">
         <f t="shared" si="14"/>
-        <v>7.4074074074074066</v>
-      </c>
-      <c r="AL25">
+        <v>0.38986354775828413</v>
+      </c>
+      <c r="AM25">
         <f t="shared" si="15"/>
-        <v>0.38986354775828413</v>
-      </c>
-      <c r="AM25">
+        <v>4</v>
+      </c>
+      <c r="AN25">
+        <f>AI25*((O25/P25)-1)</f>
+        <v>3.4074074074074066</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP25">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="AN25">
-        <f t="shared" si="0"/>
-        <v>3.4074074074074066</v>
-      </c>
-      <c r="AO25">
+      <c r="AQ25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP25">
+      <c r="AR25">
         <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AS25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR25">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AS25">
+      <c r="AT25">
+        <f t="shared" si="38"/>
+        <v>14.21113023312637</v>
+      </c>
+      <c r="AU25">
+        <f>U25+W25+Y25+AA25+AC25+AE25+AG25+AI25+AJ25+AL25+AN25+AO25+AP25+AQ25+AR25+AS25</f>
+        <v>14.211130233126369</v>
+      </c>
+      <c r="AV25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT25">
-        <f t="shared" si="42"/>
-        <v>14.21113023312637</v>
-      </c>
-      <c r="AU25">
-        <f t="shared" si="20"/>
-        <v>14.211130233126369</v>
-      </c>
-      <c r="AV25">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15018,115 +15022,115 @@
         <v>0</v>
       </c>
       <c r="T26" s="8">
+        <f t="shared" si="29"/>
+        <v>8.4210526315789469</v>
+      </c>
+      <c r="U26" s="8">
+        <f t="shared" si="30"/>
+        <v>3.4229032496853948</v>
+      </c>
+      <c r="V26" s="8">
+        <f t="shared" si="31"/>
+        <v>8.4210526315789469</v>
+      </c>
+      <c r="W26" s="8">
+        <v>0</v>
+      </c>
+      <c r="X26" s="9">
+        <f t="shared" si="32"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="Y26" s="9">
         <f t="shared" si="33"/>
-        <v>8.4210526315789469</v>
-      </c>
-      <c r="U26" s="8">
+        <v>3.1798245614035082E-2</v>
+      </c>
+      <c r="Z26" s="9">
         <f t="shared" si="34"/>
-        <v>3.4229032496853948</v>
-      </c>
-      <c r="V26" s="8">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="AA26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="8">
         <f t="shared" si="35"/>
-        <v>8.4210526315789469</v>
-      </c>
-      <c r="W26" s="8">
-        <v>0</v>
-      </c>
-      <c r="X26" s="9">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="8">
         <f t="shared" si="36"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="Y26" s="9">
+        <v>1.3670033670033672</v>
+      </c>
+      <c r="AD26" s="8">
         <f t="shared" si="37"/>
-        <v>3.1798245614035082E-2</v>
-      </c>
-      <c r="Z26" s="9">
-        <f t="shared" si="38"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="AA26" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="8">
-        <f t="shared" si="39"/>
         <v>2</v>
       </c>
-      <c r="AC26" s="8">
-        <f t="shared" si="40"/>
-        <v>1.3670033670033672</v>
-      </c>
-      <c r="AD26" s="8">
-        <f t="shared" si="41"/>
-        <v>2</v>
-      </c>
       <c r="AE26" s="8">
         <v>0</v>
       </c>
       <c r="AF26">
+        <f t="shared" si="10"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="AG26">
         <f t="shared" si="11"/>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="AG26">
-        <f t="shared" si="12"/>
         <v>0.17543859649122787</v>
       </c>
       <c r="AH26">
         <v>1</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="21"/>
+        <f>((1/(G26*H26*I26))-1)*(1-Q26)</f>
         <v>2.333333333333333</v>
       </c>
       <c r="AJ26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK26">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK26">
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="AL26">
         <f t="shared" si="14"/>
-        <v>6.6666666666666661</v>
-      </c>
-      <c r="AL26">
+        <v>0.35087719298245573</v>
+      </c>
+      <c r="AM26">
         <f t="shared" si="15"/>
-        <v>0.35087719298245573</v>
-      </c>
-      <c r="AM26">
+        <v>2</v>
+      </c>
+      <c r="AN26">
+        <f>AI26*((O26/P26)-1)</f>
+        <v>4.6666666666666661</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP26">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="AN26">
-        <f t="shared" si="0"/>
-        <v>4.6666666666666661</v>
-      </c>
-      <c r="AO26">
+      <c r="AQ26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP26">
+      <c r="AR26">
         <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AQ26">
+        <v>1</v>
+      </c>
+      <c r="AS26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR26">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AS26">
+      <c r="AT26">
+        <f t="shared" si="38"/>
+        <v>15.34802065177648</v>
+      </c>
+      <c r="AU26">
+        <f>U26+W26+Y26+AA26+AC26+AE26+AG26+AI26+AJ26+AL26+AN26+AO26+AP26+AQ26+AR26+AS26</f>
+        <v>15.34802065177648</v>
+      </c>
+      <c r="AV26">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT26">
-        <f t="shared" si="42"/>
-        <v>15.34802065177648</v>
-      </c>
-      <c r="AU26">
-        <f t="shared" si="20"/>
-        <v>15.34802065177648</v>
-      </c>
-      <c r="AV26">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15189,15 +15193,15 @@
         <v>0</v>
       </c>
       <c r="T27" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>14.035087719298245</v>
       </c>
       <c r="U27" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>5.7048387494756581</v>
       </c>
       <c r="V27" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>14.035087719298245</v>
       </c>
       <c r="W27" s="8">
@@ -15208,96 +15212,96 @@
         <v>0.17543859649122806</v>
       </c>
       <c r="Y27" s="9">
+        <f t="shared" si="33"/>
+        <v>5.29970760233918E-2</v>
+      </c>
+      <c r="Z27" s="9">
+        <f t="shared" si="34"/>
+        <v>0.17543859649122806</v>
+      </c>
+      <c r="AA27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="8">
+        <f t="shared" si="35"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="AC27" s="8">
+        <f t="shared" si="36"/>
+        <v>2.2783389450056117</v>
+      </c>
+      <c r="AD27" s="8">
         <f t="shared" si="37"/>
-        <v>5.29970760233918E-2</v>
-      </c>
-      <c r="Z27" s="9">
-        <f t="shared" si="38"/>
-        <v>0.17543859649122806</v>
-      </c>
-      <c r="AA27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="8">
-        <f t="shared" si="39"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="AC27" s="8">
-        <f t="shared" si="40"/>
-        <v>2.2783389450056117</v>
-      </c>
-      <c r="AD27" s="8">
-        <f t="shared" si="41"/>
+      <c r="AE27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="10"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="AE27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF27">
+      <c r="AG27">
         <f t="shared" si="11"/>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="AG27">
-        <f t="shared" si="12"/>
         <v>0.17543859649122787</v>
       </c>
       <c r="AH27">
         <v>1</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="21"/>
+        <f>((1/(G27*H27*I27))-1)*(1-Q27)</f>
         <v>2.333333333333333</v>
       </c>
       <c r="AJ27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK27">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK27">
+        <v>13.333333333333332</v>
+      </c>
+      <c r="AL27">
         <f t="shared" si="14"/>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="AL27">
+        <v>0.70175438596491146</v>
+      </c>
+      <c r="AM27">
         <f t="shared" si="15"/>
-        <v>0.70175438596491146</v>
-      </c>
-      <c r="AM27">
+        <v>4</v>
+      </c>
+      <c r="AN27">
+        <f>AI27*((O27/P27)-1)</f>
+        <v>9.3333333333333321</v>
+      </c>
+      <c r="AO27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP27">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="AN27">
-        <f t="shared" si="0"/>
-        <v>9.3333333333333321</v>
-      </c>
-      <c r="AO27">
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="AQ27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AP27">
+        <v>3.2</v>
+      </c>
+      <c r="AR27">
         <f t="shared" si="17"/>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="AQ27">
+        <v>1</v>
+      </c>
+      <c r="AS27">
         <f t="shared" si="2"/>
-        <v>3.2</v>
-      </c>
-      <c r="AR27">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <f t="shared" si="38"/>
+        <v>25.580034419627466</v>
+      </c>
+      <c r="AU27">
+        <f>U27+W27+Y27+AA27+AC27+AE27+AG27+AI27+AJ27+AL27+AN27+AO27+AP27+AQ27+AR27+AS27</f>
+        <v>25.580034419627466</v>
+      </c>
+      <c r="AV27">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT27">
-        <f t="shared" si="42"/>
-        <v>25.580034419627466</v>
-      </c>
-      <c r="AU27">
-        <f t="shared" si="20"/>
-        <v>25.580034419627466</v>
-      </c>
-      <c r="AV27">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15360,115 +15364,115 @@
         <v>0.5</v>
       </c>
       <c r="T28" s="8">
+        <f t="shared" si="29"/>
+        <v>14.035087719298245</v>
+      </c>
+      <c r="U28" s="8">
+        <f t="shared" si="30"/>
+        <v>5.7048387494756581</v>
+      </c>
+      <c r="V28" s="8">
+        <f t="shared" si="31"/>
+        <v>14.035087719298245</v>
+      </c>
+      <c r="W28" s="8">
+        <v>0</v>
+      </c>
+      <c r="X28" s="9">
+        <f t="shared" si="32"/>
+        <v>0.17543859649122806</v>
+      </c>
+      <c r="Y28" s="9">
         <f t="shared" si="33"/>
-        <v>14.035087719298245</v>
-      </c>
-      <c r="U28" s="8">
+        <v>5.29970760233918E-2</v>
+      </c>
+      <c r="Z28" s="9">
         <f t="shared" si="34"/>
-        <v>5.7048387494756581</v>
-      </c>
-      <c r="V28" s="8">
+        <v>0.17543859649122806</v>
+      </c>
+      <c r="AA28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="8">
         <f t="shared" si="35"/>
-        <v>14.035087719298245</v>
-      </c>
-      <c r="W28" s="8">
-        <v>0</v>
-      </c>
-      <c r="X28" s="9">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="AC28" s="8">
         <f t="shared" si="36"/>
-        <v>0.17543859649122806</v>
-      </c>
-      <c r="Y28" s="9">
+        <v>2.2783389450056117</v>
+      </c>
+      <c r="AD28" s="8">
         <f t="shared" si="37"/>
-        <v>5.29970760233918E-2</v>
-      </c>
-      <c r="Z28" s="9">
-        <f t="shared" si="38"/>
-        <v>0.17543859649122806</v>
-      </c>
-      <c r="AA28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="8">
-        <f t="shared" si="39"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="AC28" s="8">
-        <f t="shared" si="40"/>
-        <v>2.2783389450056117</v>
-      </c>
-      <c r="AD28" s="8">
-        <f t="shared" si="41"/>
+      <c r="AE28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="10"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="AE28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF28">
+      <c r="AG28">
         <f t="shared" si="11"/>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="AG28">
-        <f t="shared" si="12"/>
         <v>0.17543859649122787</v>
       </c>
       <c r="AH28">
         <v>1</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="21"/>
+        <f>((1/(G28*H28*I28))-1)*(1-Q28)</f>
         <v>2.333333333333333</v>
       </c>
       <c r="AJ28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK28">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK28">
+        <v>13.333333333333332</v>
+      </c>
+      <c r="AL28">
         <f t="shared" si="14"/>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="AL28">
+        <v>0.70175438596491146</v>
+      </c>
+      <c r="AM28">
         <f t="shared" si="15"/>
-        <v>0.70175438596491146</v>
-      </c>
-      <c r="AM28">
+        <v>4</v>
+      </c>
+      <c r="AN28">
+        <f>AI28*((O28/P28)-1)</f>
+        <v>9.3333333333333321</v>
+      </c>
+      <c r="AO28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP28">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="AN28">
-        <f t="shared" si="0"/>
-        <v>9.3333333333333321</v>
-      </c>
-      <c r="AO28">
+      <c r="AQ28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP28">
+      <c r="AR28">
         <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="AQ28">
+        <v>0.5</v>
+      </c>
+      <c r="AS28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
-      <c r="AS28">
+      <c r="AT28">
+        <f t="shared" si="38"/>
+        <v>25.580034419627466</v>
+      </c>
+      <c r="AU28">
+        <f>U28+W28+Y28+AA28+AC28+AE28+AG28+AI28+AJ28+AL28+AN28+AO28+AP28+AQ28+AR28+AS28</f>
+        <v>25.580034419627466</v>
+      </c>
+      <c r="AV28">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="AT28">
-        <f t="shared" si="42"/>
-        <v>25.580034419627466</v>
-      </c>
-      <c r="AU28">
-        <f t="shared" si="20"/>
-        <v>25.580034419627466</v>
-      </c>
-      <c r="AV28">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15535,111 +15539,111 @@
         <v>4.6783625730994149</v>
       </c>
       <c r="U29" s="8">
+        <f t="shared" si="30"/>
+        <v>1.9016129164918858</v>
+      </c>
+      <c r="V29" s="8">
+        <f t="shared" si="31"/>
+        <v>4.6783625730994149</v>
+      </c>
+      <c r="W29" s="8">
+        <v>0</v>
+      </c>
+      <c r="X29" s="9">
+        <f t="shared" si="32"/>
+        <v>5.8479532163742687E-2</v>
+      </c>
+      <c r="Y29" s="9">
+        <f t="shared" si="33"/>
+        <v>1.766569200779727E-2</v>
+      </c>
+      <c r="Z29" s="9">
         <f t="shared" si="34"/>
-        <v>1.9016129164918858</v>
-      </c>
-      <c r="V29" s="8">
+        <v>5.8479532163742687E-2</v>
+      </c>
+      <c r="AA29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="8">
         <f t="shared" si="35"/>
-        <v>4.6783625730994149</v>
-      </c>
-      <c r="W29" s="8">
-        <v>0</v>
-      </c>
-      <c r="X29" s="9">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AC29" s="8">
         <f t="shared" si="36"/>
-        <v>5.8479532163742687E-2</v>
-      </c>
-      <c r="Y29" s="9">
+        <v>0.75944631500187065</v>
+      </c>
+      <c r="AD29" s="8">
         <f t="shared" si="37"/>
-        <v>1.766569200779727E-2</v>
-      </c>
-      <c r="Z29" s="9">
-        <f t="shared" si="38"/>
-        <v>5.8479532163742687E-2</v>
-      </c>
-      <c r="AA29" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="8">
-        <f t="shared" si="39"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="AC29" s="8">
-        <f t="shared" si="40"/>
-        <v>0.75944631500187065</v>
-      </c>
-      <c r="AD29" s="8">
-        <f t="shared" si="41"/>
-        <v>1.1111111111111112</v>
-      </c>
       <c r="AE29" s="8">
         <v>0</v>
       </c>
       <c r="AF29">
+        <f t="shared" si="10"/>
+        <v>1.8518518518518516</v>
+      </c>
+      <c r="AG29">
         <f t="shared" si="11"/>
-        <v>1.8518518518518516</v>
-      </c>
-      <c r="AG29">
-        <f t="shared" si="12"/>
         <v>9.7465886939571034E-2</v>
       </c>
       <c r="AH29">
         <v>1</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="21"/>
+        <f>((1/(G29*H29*I29))-1)*(1-Q29)</f>
         <v>8.5185185185185142E-2</v>
       </c>
       <c r="AJ29">
+        <f t="shared" si="12"/>
+        <v>0.7666666666666665</v>
+      </c>
+      <c r="AK29">
         <f t="shared" si="13"/>
-        <v>0.7666666666666665</v>
-      </c>
-      <c r="AK29">
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="AL29">
         <f t="shared" si="14"/>
-        <v>3.7037037037037033</v>
-      </c>
-      <c r="AL29">
+        <v>0.19493177387914207</v>
+      </c>
+      <c r="AM29">
         <f t="shared" si="15"/>
-        <v>0.19493177387914207</v>
-      </c>
-      <c r="AM29">
+        <v>2</v>
+      </c>
+      <c r="AN29">
+        <f>AI29*((O29/P29)-1)</f>
+        <v>0.17037037037037028</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="0"/>
+        <v>1.533333333333333</v>
+      </c>
+      <c r="AP29">
         <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AN29">
-        <f t="shared" si="0"/>
-        <v>0.17037037037037028</v>
-      </c>
-      <c r="AO29">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AQ29">
         <f t="shared" si="1"/>
-        <v>1.533333333333333</v>
-      </c>
-      <c r="AP29">
+        <v>1.6</v>
+      </c>
+      <c r="AR29">
         <f t="shared" si="17"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="AQ29">
+        <v>0.5</v>
+      </c>
+      <c r="AS29">
         <f t="shared" si="2"/>
-        <v>1.6</v>
-      </c>
-      <c r="AR29">
-        <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
-      <c r="AS29">
+      <c r="AT29">
+        <f t="shared" si="38"/>
+        <v>8.5266781398758216</v>
+      </c>
+      <c r="AU29">
+        <f>U29+W29+Y29+AA29+AC29+AE29+AG29+AI29+AJ29+AL29+AN29+AO29+AP29+AQ29+AR29+AS29</f>
+        <v>8.5266781398758216</v>
+      </c>
+      <c r="AV29">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="AT29">
-        <f t="shared" si="42"/>
-        <v>8.5266781398758216</v>
-      </c>
-      <c r="AU29">
-        <f t="shared" si="20"/>
-        <v>8.5266781398758216</v>
-      </c>
-      <c r="AV29">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15702,11 +15706,11 @@
         <v>0</v>
       </c>
       <c r="T30" s="8">
-        <f t="shared" ref="T30:T37" si="43">0.82*B30*(1/(B30*F30*G30*H30*I30))*(O30/P30)</f>
+        <f t="shared" ref="T30:T36" si="39">0.82*B30*(1/(B30*F30*G30*H30*I30))*(O30/P30)</f>
         <v>17.982456140350877</v>
       </c>
       <c r="U30" s="8">
-        <f t="shared" ref="U30:U36" si="44">0.82*(1/(G30*H30*I30*F30*E30))*((1/B30)-1)*(O30/P30)</f>
+        <f t="shared" ref="U30:U36" si="40">0.82*(1/(G30*H30*I30*F30*E30))*((1/B30)-1)*(O30/P30)</f>
         <v>9.3881011508985512</v>
       </c>
       <c r="V30" s="8">
@@ -15725,7 +15729,7 @@
         <v>2.2372851320219742</v>
       </c>
       <c r="Z30" s="9">
-        <f t="shared" ref="Z30:Z36" si="45">0.1*(AF30/F30)*(O30/P30)</f>
+        <f t="shared" ref="Z30:Z36" si="41">0.1*(AF30/F30)*(O30/P30)</f>
         <v>2.1929824561403506</v>
       </c>
       <c r="AA30" s="9">
@@ -15736,69 +15740,69 @@
         <v>0.8771929824561403</v>
       </c>
       <c r="AC30" s="8">
-        <f t="shared" ref="AC30:AC36" si="46">0.04*(1-D30)*(1/(D30*F30*G30*H30*I30))*(O30/P30)</f>
+        <f t="shared" ref="AC30:AC36" si="42">0.04*(1-D30)*(1/(D30*F30*G30*H30*I30))*(O30/P30)</f>
         <v>0.59956288026463467</v>
       </c>
       <c r="AD30" s="8">
-        <f t="shared" ref="AD30:AD36" si="47">0.04*(AF30/F30)*(O30/P30)</f>
+        <f t="shared" ref="AD30:AD36" si="43">0.04*(AF30/F30)*(O30/P30)</f>
         <v>0.8771929824561403</v>
       </c>
       <c r="AE30" s="8">
         <v>0</v>
       </c>
       <c r="AF30">
+        <f t="shared" si="10"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="AG30">
         <f t="shared" si="11"/>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="AG30">
-        <f t="shared" si="12"/>
         <v>0.21929824561403483</v>
       </c>
       <c r="AH30">
         <v>1</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="21"/>
+        <f>((1/(G30*H30*I30))-1)*(1-Q30)</f>
         <v>3.1666666666666661</v>
       </c>
       <c r="AJ30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK30">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK30">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AL30">
         <f t="shared" si="14"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AL30">
+        <v>0.8771929824561393</v>
+      </c>
+      <c r="AM30">
         <f t="shared" si="15"/>
-        <v>0.8771929824561393</v>
-      </c>
-      <c r="AM30">
+        <v>4</v>
+      </c>
+      <c r="AN30">
+        <f>AI30*((O30/P30)-1)</f>
+        <v>12.666666666666664</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP30">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="AN30">
-        <f t="shared" si="0"/>
-        <v>12.666666666666664</v>
-      </c>
-      <c r="AO30">
+        <v>3</v>
+      </c>
+      <c r="AQ30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP30">
+      <c r="AR30">
         <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="AQ30">
+        <v>2</v>
+      </c>
+      <c r="AS30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="AS30">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT30">
@@ -15810,7 +15814,7 @@
         <v>34.7543366048533</v>
       </c>
       <c r="AV30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15873,115 +15877,115 @@
         <v>0</v>
       </c>
       <c r="T31" s="8">
+        <f t="shared" si="39"/>
+        <v>17.982456140350877</v>
+      </c>
+      <c r="U31" s="8">
+        <f t="shared" si="40"/>
+        <v>9.3881011508985512</v>
+      </c>
+      <c r="V31" s="8">
+        <f t="shared" ref="V31:V36" si="44">0.82*(AF31/F31)*(O31/P31)</f>
+        <v>17.982456140350873</v>
+      </c>
+      <c r="W31" s="8">
+        <v>0</v>
+      </c>
+      <c r="X31" s="9">
+        <f t="shared" ref="X31:X36" si="45">0.1*(1/(F31*G31*H31*I31))*(O31/P31)</f>
+        <v>2.1929824561403506</v>
+      </c>
+      <c r="Y31" s="9">
+        <f t="shared" ref="Y31:Y36" si="46">0.1*(1-C31)*(1/(C31*F31*G31*H31*I31))*(O31/P31)</f>
+        <v>2.2372851320219742</v>
+      </c>
+      <c r="Z31" s="9">
+        <f t="shared" si="41"/>
+        <v>2.1929824561403506</v>
+      </c>
+      <c r="AA31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="8">
+        <f t="shared" ref="AB31:AB36" si="47">0.04*(1/(F31*G31*H31*I31))*(O31/P31)</f>
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="AC31" s="8">
+        <f t="shared" si="42"/>
+        <v>0.59956288026463467</v>
+      </c>
+      <c r="AD31" s="8">
         <f t="shared" si="43"/>
-        <v>17.982456140350877</v>
-      </c>
-      <c r="U31" s="8">
-        <f t="shared" si="44"/>
-        <v>9.3881011508985512</v>
-      </c>
-      <c r="V31" s="8">
-        <f t="shared" ref="V31:V36" si="48">0.82*(AF31/F31)*(O31/P31)</f>
-        <v>17.982456140350873</v>
-      </c>
-      <c r="W31" s="8">
-        <v>0</v>
-      </c>
-      <c r="X31" s="9">
-        <f t="shared" ref="X31:X36" si="49">0.1*(1/(F31*G31*H31*I31))*(O31/P31)</f>
-        <v>2.1929824561403506</v>
-      </c>
-      <c r="Y31" s="9">
-        <f t="shared" ref="Y31:Y36" si="50">0.1*(1-C31)*(1/(C31*F31*G31*H31*I31))*(O31/P31)</f>
-        <v>2.2372851320219742</v>
-      </c>
-      <c r="Z31" s="9">
-        <f t="shared" si="45"/>
-        <v>2.1929824561403506</v>
-      </c>
-      <c r="AA31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="8">
-        <f t="shared" ref="AB31:AB36" si="51">0.04*(1/(F31*G31*H31*I31))*(O31/P31)</f>
         <v>0.8771929824561403</v>
       </c>
-      <c r="AC31" s="8">
-        <f t="shared" si="46"/>
-        <v>0.59956288026463467</v>
-      </c>
-      <c r="AD31" s="8">
-        <f t="shared" si="47"/>
-        <v>0.8771929824561403</v>
-      </c>
       <c r="AE31" s="8">
         <v>0</v>
       </c>
       <c r="AF31">
+        <f t="shared" si="10"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="AG31">
         <f t="shared" si="11"/>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="AG31">
-        <f t="shared" si="12"/>
         <v>0.21929824561403483</v>
       </c>
       <c r="AH31">
         <v>1</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="21"/>
+        <f>((1/(G31*H31*I31))-1)*(1-Q31)</f>
         <v>0.31666666666666654</v>
       </c>
       <c r="AJ31">
+        <f t="shared" si="12"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="AK31">
         <f t="shared" si="13"/>
-        <v>2.8499999999999996</v>
-      </c>
-      <c r="AK31">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AL31">
         <f t="shared" si="14"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AL31">
+        <v>0.8771929824561393</v>
+      </c>
+      <c r="AM31">
         <f t="shared" si="15"/>
-        <v>0.8771929824561393</v>
-      </c>
-      <c r="AM31">
+        <v>4</v>
+      </c>
+      <c r="AN31">
+        <f>AI31*((O31/P31)-1)</f>
+        <v>1.2666666666666662</v>
+      </c>
+      <c r="AO31">
+        <f t="shared" si="0"/>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="AP31">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="AN31">
-        <f t="shared" si="0"/>
-        <v>1.2666666666666662</v>
-      </c>
-      <c r="AO31">
+        <v>3</v>
+      </c>
+      <c r="AQ31">
         <f t="shared" si="1"/>
-        <v>11.399999999999999</v>
-      </c>
-      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
         <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="AQ31">
+        <v>2</v>
+      </c>
+      <c r="AS31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR31">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="AS31">
+      <c r="AT31">
+        <f t="shared" ref="AT31:AT36" si="48">(T31+X31+AB31+AB31+U31+Y31+AC31+AC31)</f>
+        <v>34.7543366048533</v>
+      </c>
+      <c r="AU31">
+        <f>U31+W31+Y31+AA31+AC31+AC31+AE31+AG31+AI31+AJ31+AL31+AN31+AO31+AP31+AQ31+AR31+AS31</f>
+        <v>34.7543366048533</v>
+      </c>
+      <c r="AV31">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT31">
-        <f t="shared" ref="AT31:AT36" si="52">(T31+X31+AB31+AB31+U31+Y31+AC31+AC31)</f>
-        <v>34.7543366048533</v>
-      </c>
-      <c r="AU31">
-        <f t="shared" ref="AU31:AU36" si="53">U31+W31+Y31+AA31+AC31+AC31+AE31+AG31+AI31+AJ31+AL31+AN31+AO31+AP31+AQ31+AR31+AS31</f>
-        <v>34.7543366048533</v>
-      </c>
-      <c r="AV31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16044,115 +16048,115 @@
         <v>0</v>
       </c>
       <c r="T32" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>9.1864399184423373</v>
       </c>
       <c r="U32" s="8">
+        <f t="shared" si="40"/>
+        <v>4.7959648280452374</v>
+      </c>
+      <c r="V32" s="8">
         <f t="shared" si="44"/>
-        <v>4.7959648280452374</v>
-      </c>
-      <c r="V32" s="8">
-        <f t="shared" si="48"/>
         <v>9.1864399184423373</v>
       </c>
       <c r="W32" s="8">
         <v>0</v>
       </c>
       <c r="X32" s="9">
-        <f t="shared" si="49"/>
-        <v>1.1202975510295534</v>
-      </c>
-      <c r="Y32" s="9">
-        <f t="shared" si="50"/>
-        <v>1.1429298247877264</v>
-      </c>
-      <c r="Z32" s="9">
         <f t="shared" si="45"/>
         <v>1.1202975510295534</v>
       </c>
+      <c r="Y32" s="9">
+        <f t="shared" si="46"/>
+        <v>1.1429298247877264</v>
+      </c>
+      <c r="Z32" s="9">
+        <f t="shared" si="41"/>
+        <v>1.1202975510295534</v>
+      </c>
       <c r="AA32" s="9">
         <v>0</v>
       </c>
       <c r="AB32" s="8">
-        <f t="shared" si="51"/>
-        <v>0.44811902041182133</v>
-      </c>
-      <c r="AC32" s="8">
-        <f t="shared" si="46"/>
-        <v>0.30629010486060526</v>
-      </c>
-      <c r="AD32" s="8">
         <f t="shared" si="47"/>
         <v>0.44811902041182133</v>
       </c>
+      <c r="AC32" s="8">
+        <f t="shared" si="42"/>
+        <v>0.30629010486060526</v>
+      </c>
+      <c r="AD32" s="8">
+        <f t="shared" si="43"/>
+        <v>0.44811902041182133</v>
+      </c>
       <c r="AE32" s="8">
         <v>0</v>
       </c>
       <c r="AF32">
+        <f t="shared" si="10"/>
+        <v>2.1285653469561514</v>
+      </c>
+      <c r="AG32">
         <f t="shared" si="11"/>
-        <v>2.1285653469561514</v>
-      </c>
-      <c r="AG32">
-        <f t="shared" si="12"/>
         <v>0.11202975510295521</v>
       </c>
       <c r="AH32">
         <v>1</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="21"/>
+        <f>((1/(G32*H32*I32))-1)*(1-Q32)</f>
         <v>1.1285653469561514</v>
       </c>
       <c r="AJ32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK32">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK32">
+        <v>8.5142613878246056</v>
+      </c>
+      <c r="AL32">
         <f t="shared" si="14"/>
-        <v>8.5142613878246056</v>
-      </c>
-      <c r="AL32">
+        <v>0.44811902041182083</v>
+      </c>
+      <c r="AM32">
         <f t="shared" si="15"/>
-        <v>0.44811902041182083</v>
-      </c>
-      <c r="AM32">
+        <v>4</v>
+      </c>
+      <c r="AN32">
+        <f>AI32*((O32/P32)-1)</f>
+        <v>4.5142613878246056</v>
+      </c>
+      <c r="AO32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP32">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="AN32">
-        <f t="shared" si="0"/>
-        <v>4.5142613878246056</v>
-      </c>
-      <c r="AO32">
+        <v>3</v>
+      </c>
+      <c r="AQ32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP32">
+      <c r="AR32">
         <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="AQ32">
+        <v>2</v>
+      </c>
+      <c r="AS32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR32">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="AS32">
+      <c r="AT32">
+        <f t="shared" si="48"/>
+        <v>17.754450372849707</v>
+      </c>
+      <c r="AU32">
+        <f>U32+W32+Y32+AA32+AC32+AC32+AE32+AG32+AI32+AJ32+AL32+AN32+AO32+AP32+AQ32+AR32+AS32</f>
+        <v>17.754450372849711</v>
+      </c>
+      <c r="AV32">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT32">
-        <f t="shared" si="52"/>
-        <v>17.754450372849707</v>
-      </c>
-      <c r="AU32">
-        <f t="shared" si="53"/>
-        <v>17.754450372849711</v>
-      </c>
-      <c r="AV32">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16215,115 +16219,115 @@
         <v>0</v>
       </c>
       <c r="T33" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>8.9912280701754383</v>
       </c>
       <c r="U33" s="8">
+        <f t="shared" si="40"/>
+        <v>4.6940505754492756</v>
+      </c>
+      <c r="V33" s="8">
         <f t="shared" si="44"/>
-        <v>4.6940505754492756</v>
-      </c>
-      <c r="V33" s="8">
-        <f t="shared" si="48"/>
         <v>8.9912280701754366</v>
       </c>
       <c r="W33" s="8">
         <v>0</v>
       </c>
       <c r="X33" s="9">
-        <f t="shared" si="49"/>
-        <v>1.0964912280701753</v>
-      </c>
-      <c r="Y33" s="9">
-        <f t="shared" si="50"/>
-        <v>1.1186425660109871</v>
-      </c>
-      <c r="Z33" s="9">
         <f t="shared" si="45"/>
         <v>1.0964912280701753</v>
       </c>
+      <c r="Y33" s="9">
+        <f t="shared" si="46"/>
+        <v>1.1186425660109871</v>
+      </c>
+      <c r="Z33" s="9">
+        <f t="shared" si="41"/>
+        <v>1.0964912280701753</v>
+      </c>
       <c r="AA33" s="9">
         <v>0</v>
       </c>
       <c r="AB33" s="8">
-        <f t="shared" si="51"/>
-        <v>0.43859649122807015</v>
-      </c>
-      <c r="AC33" s="8">
-        <f t="shared" si="46"/>
-        <v>0.29978144013231733</v>
-      </c>
-      <c r="AD33" s="8">
         <f t="shared" si="47"/>
         <v>0.43859649122807015</v>
       </c>
+      <c r="AC33" s="8">
+        <f t="shared" si="42"/>
+        <v>0.29978144013231733</v>
+      </c>
+      <c r="AD33" s="8">
+        <f t="shared" si="43"/>
+        <v>0.43859649122807015</v>
+      </c>
       <c r="AE33" s="8">
         <v>0</v>
       </c>
       <c r="AF33">
+        <f t="shared" si="10"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="AG33">
         <f t="shared" si="11"/>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="AG33">
-        <f t="shared" si="12"/>
         <v>0.21929824561403483</v>
       </c>
       <c r="AH33">
         <v>1</v>
       </c>
       <c r="AI33">
-        <f t="shared" si="21"/>
+        <f>((1/(G33*H33*I33))-1)*(1-Q33)</f>
         <v>3.1666666666666661</v>
       </c>
       <c r="AJ33">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK33">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK33">
+        <v>6.2499999999999991</v>
+      </c>
+      <c r="AL33">
         <f t="shared" si="14"/>
-        <v>6.2499999999999991</v>
-      </c>
-      <c r="AL33">
+        <v>0.32894736842105221</v>
+      </c>
+      <c r="AM33">
         <f t="shared" si="15"/>
-        <v>0.32894736842105221</v>
-      </c>
-      <c r="AM33">
+        <v>1.5</v>
+      </c>
+      <c r="AN33">
+        <f>AI33*((O33/P33)-1)</f>
+        <v>4.7499999999999991</v>
+      </c>
+      <c r="AO33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP33">
         <f t="shared" si="16"/>
-        <v>1.5</v>
-      </c>
-      <c r="AN33">
-        <f t="shared" si="0"/>
-        <v>4.7499999999999991</v>
-      </c>
-      <c r="AO33">
+        <v>0.5</v>
+      </c>
+      <c r="AQ33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP33">
+      <c r="AR33">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="AQ33">
+        <v>2</v>
+      </c>
+      <c r="AS33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR33">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="AS33">
+      <c r="AT33">
+        <f t="shared" si="48"/>
+        <v>17.37716830242665</v>
+      </c>
+      <c r="AU33">
+        <f>U33+W33+Y33+AA33+AC33+AC33+AE33+AG33+AI33+AJ33+AL33+AN33+AO33+AP33+AQ33+AR33+AS33</f>
+        <v>17.37716830242665</v>
+      </c>
+      <c r="AV33">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT33">
-        <f t="shared" si="52"/>
-        <v>17.37716830242665</v>
-      </c>
-      <c r="AU33">
-        <f t="shared" si="53"/>
-        <v>17.37716830242665</v>
-      </c>
-      <c r="AV33">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16386,115 +16390,115 @@
         <v>0</v>
       </c>
       <c r="T34" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>17.982456140350877</v>
       </c>
       <c r="U34" s="8">
+        <f t="shared" si="40"/>
+        <v>9.3881011508985512</v>
+      </c>
+      <c r="V34" s="8">
         <f t="shared" si="44"/>
-        <v>9.3881011508985512</v>
-      </c>
-      <c r="V34" s="8">
-        <f t="shared" si="48"/>
         <v>17.982456140350873</v>
       </c>
       <c r="W34" s="8">
         <v>0</v>
       </c>
       <c r="X34" s="9">
-        <f t="shared" si="49"/>
-        <v>2.1929824561403506</v>
-      </c>
-      <c r="Y34" s="9">
-        <f t="shared" si="50"/>
-        <v>2.2372851320219742</v>
-      </c>
-      <c r="Z34" s="9">
         <f t="shared" si="45"/>
         <v>2.1929824561403506</v>
       </c>
+      <c r="Y34" s="9">
+        <f t="shared" si="46"/>
+        <v>2.2372851320219742</v>
+      </c>
+      <c r="Z34" s="9">
+        <f t="shared" si="41"/>
+        <v>2.1929824561403506</v>
+      </c>
       <c r="AA34" s="9">
         <v>0</v>
       </c>
       <c r="AB34" s="8">
-        <f t="shared" si="51"/>
-        <v>0.8771929824561403</v>
-      </c>
-      <c r="AC34" s="8">
-        <f t="shared" si="46"/>
-        <v>0.59956288026463467</v>
-      </c>
-      <c r="AD34" s="8">
         <f t="shared" si="47"/>
         <v>0.8771929824561403</v>
       </c>
+      <c r="AC34" s="8">
+        <f t="shared" si="42"/>
+        <v>0.59956288026463467</v>
+      </c>
+      <c r="AD34" s="8">
+        <f t="shared" si="43"/>
+        <v>0.8771929824561403</v>
+      </c>
       <c r="AE34" s="8">
         <v>0</v>
       </c>
       <c r="AF34">
-        <f t="shared" ref="AF34:AF50" si="54">1/(G34*H34*I34)</f>
+        <f t="shared" ref="AF34:AF50" si="49">1/(G34*H34*I34)</f>
         <v>4.1666666666666661</v>
       </c>
       <c r="AG34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.21929824561403483</v>
       </c>
       <c r="AH34">
         <v>1</v>
       </c>
       <c r="AI34">
-        <f t="shared" si="21"/>
+        <f>((1/(G34*H34*I34))-1)*(1-Q34)</f>
         <v>3.1666666666666661</v>
       </c>
       <c r="AJ34">
-        <f t="shared" ref="AJ34:AJ50" si="55">Q34*(AF34-AH34)</f>
+        <f t="shared" ref="AJ34:AJ50" si="50">Q34*(AF34-AH34)</f>
         <v>0</v>
       </c>
       <c r="AK34">
-        <f t="shared" ref="AK34:AK50" si="56">AF34*((O34/P34)-1)</f>
+        <f t="shared" ref="AK34:AK50" si="51">AF34*((O34/P34)-1)</f>
         <v>16.666666666666664</v>
       </c>
       <c r="AL34">
-        <f t="shared" ref="AL34:AL50" si="57">AG34*((O34/P34)-1)</f>
+        <f t="shared" ref="AL34:AL50" si="52">AG34*((O34/P34)-1)</f>
         <v>0.8771929824561393</v>
       </c>
       <c r="AM34">
-        <f t="shared" ref="AM34:AM50" si="58">AH34*((O34/P34)-1)</f>
+        <f t="shared" ref="AM34:AM50" si="53">AH34*((O34/P34)-1)</f>
         <v>4</v>
       </c>
       <c r="AN34">
-        <f t="shared" ref="AN34:AN50" si="59">AI34*((O34/P34)-1)</f>
+        <f>AI34*((O34/P34)-1)</f>
         <v>12.666666666666664</v>
       </c>
       <c r="AO34">
-        <f t="shared" ref="AO34:AO50" si="60">AJ34*((O34/P34)-1)</f>
+        <f t="shared" ref="AO34:AO50" si="54">AJ34*((O34/P34)-1)</f>
         <v>0</v>
       </c>
       <c r="AP34">
-        <f t="shared" ref="AP34:AP50" si="61">(1-R34)*AH34*((O34/P34)-(ROUNDDOWN(O34/N34,0)))</f>
+        <f t="shared" ref="AP34:AP50" si="55">(1-R34)*AH34*((O34/P34)-(ROUNDDOWN(O34/N34,0)))</f>
         <v>0.59999999999999987</v>
       </c>
       <c r="AQ34">
-        <f t="shared" ref="AQ34:AQ50" si="62">R34*AH34*((O34/P34)-(ROUNDDOWN(O34/N34,0)))</f>
+        <f t="shared" ref="AQ34:AQ50" si="56">R34*AH34*((O34/P34)-(ROUNDDOWN(O34/N34,0)))</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="AR34">
-        <f t="shared" ref="AR34:AR50" si="63">(1-S34)*AH34*ROUNDDOWN(O34/N34,0)</f>
+        <f t="shared" ref="AR34:AR50" si="57">(1-S34)*AH34*ROUNDDOWN(O34/N34,0)</f>
         <v>2</v>
       </c>
       <c r="AS34">
-        <f t="shared" ref="AS34:AS50" si="64">S34*AH34*ROUNDDOWN(O34/N34,0)</f>
+        <f t="shared" ref="AS34:AS50" si="58">S34*AH34*ROUNDDOWN(O34/N34,0)</f>
         <v>0</v>
       </c>
       <c r="AT34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>34.7543366048533</v>
       </c>
       <c r="AU34">
-        <f t="shared" si="53"/>
+        <f>U34+W34+Y34+AA34+AC34+AC34+AE34+AG34+AI34+AJ34+AL34+AN34+AO34+AP34+AQ34+AR34+AS34</f>
         <v>34.7543366048533</v>
       </c>
       <c r="AV34">
-        <f t="shared" ref="AV34:AV50" si="65">AT34-AU34</f>
+        <f t="shared" ref="AV34:AV50" si="59">AT34-AU34</f>
         <v>0</v>
       </c>
     </row>
@@ -16557,115 +16561,115 @@
         <v>0.5</v>
       </c>
       <c r="T35" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>17.982456140350877</v>
       </c>
       <c r="U35" s="8">
+        <f t="shared" si="40"/>
+        <v>9.3881011508985512</v>
+      </c>
+      <c r="V35" s="8">
         <f t="shared" si="44"/>
-        <v>9.3881011508985512</v>
-      </c>
-      <c r="V35" s="8">
-        <f t="shared" si="48"/>
         <v>17.982456140350873</v>
       </c>
       <c r="W35" s="8">
         <v>0</v>
       </c>
       <c r="X35" s="9">
-        <f t="shared" si="49"/>
-        <v>2.1929824561403506</v>
-      </c>
-      <c r="Y35" s="9">
-        <f t="shared" si="50"/>
-        <v>2.2372851320219742</v>
-      </c>
-      <c r="Z35" s="9">
         <f t="shared" si="45"/>
         <v>2.1929824561403506</v>
       </c>
+      <c r="Y35" s="9">
+        <f t="shared" si="46"/>
+        <v>2.2372851320219742</v>
+      </c>
+      <c r="Z35" s="9">
+        <f t="shared" si="41"/>
+        <v>2.1929824561403506</v>
+      </c>
       <c r="AA35" s="9">
         <v>0</v>
       </c>
       <c r="AB35" s="8">
-        <f t="shared" si="51"/>
-        <v>0.8771929824561403</v>
-      </c>
-      <c r="AC35" s="8">
-        <f t="shared" si="46"/>
-        <v>0.59956288026463467</v>
-      </c>
-      <c r="AD35" s="8">
         <f t="shared" si="47"/>
         <v>0.8771929824561403</v>
       </c>
+      <c r="AC35" s="8">
+        <f t="shared" si="42"/>
+        <v>0.59956288026463467</v>
+      </c>
+      <c r="AD35" s="8">
+        <f t="shared" si="43"/>
+        <v>0.8771929824561403</v>
+      </c>
       <c r="AE35" s="8">
         <v>0</v>
       </c>
       <c r="AF35">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>4.1666666666666661</v>
       </c>
       <c r="AG35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.21929824561403483</v>
       </c>
       <c r="AH35">
         <v>1</v>
       </c>
       <c r="AI35">
-        <f t="shared" si="21"/>
+        <f>((1/(G35*H35*I35))-1)*(1-Q35)</f>
         <v>3.1666666666666661</v>
       </c>
       <c r="AJ35">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="51"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AL35">
+        <f t="shared" si="52"/>
+        <v>0.8771929824561393</v>
+      </c>
+      <c r="AM35">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="AN35">
+        <f>AI35*((O35/P35)-1)</f>
+        <v>12.666666666666664</v>
+      </c>
+      <c r="AO35">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AP35">
         <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="AK35">
+        <v>3</v>
+      </c>
+      <c r="AQ35">
         <f t="shared" si="56"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
         <f t="shared" si="57"/>
-        <v>0.8771929824561393</v>
-      </c>
-      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AS35">
         <f t="shared" si="58"/>
-        <v>4</v>
-      </c>
-      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AT35">
+        <f t="shared" si="48"/>
+        <v>34.7543366048533</v>
+      </c>
+      <c r="AU35">
+        <f>U35+W35+Y35+AA35+AC35+AC35+AE35+AG35+AI35+AJ35+AL35+AN35+AO35+AP35+AQ35+AR35+AS35</f>
+        <v>34.7543366048533</v>
+      </c>
+      <c r="AV35">
         <f t="shared" si="59"/>
-        <v>12.666666666666664</v>
-      </c>
-      <c r="AO35">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <f t="shared" si="61"/>
-        <v>3</v>
-      </c>
-      <c r="AQ35">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <f t="shared" si="63"/>
-        <v>1</v>
-      </c>
-      <c r="AS35">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="AT35">
-        <f t="shared" si="52"/>
-        <v>34.7543366048533</v>
-      </c>
-      <c r="AU35">
-        <f t="shared" si="53"/>
-        <v>34.7543366048533</v>
-      </c>
-      <c r="AV35">
-        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -16728,115 +16732,115 @@
         <v>0.5</v>
       </c>
       <c r="T36" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>4.5932199592211687</v>
       </c>
       <c r="U36" s="8">
+        <f t="shared" si="40"/>
+        <v>2.3979824140226187</v>
+      </c>
+      <c r="V36" s="8">
         <f t="shared" si="44"/>
-        <v>2.3979824140226187</v>
-      </c>
-      <c r="V36" s="8">
-        <f t="shared" si="48"/>
         <v>4.5932199592211687</v>
       </c>
       <c r="W36" s="8">
         <v>0</v>
       </c>
       <c r="X36" s="9">
-        <f t="shared" si="49"/>
-        <v>0.56014877551477671</v>
-      </c>
-      <c r="Y36" s="9">
-        <f t="shared" si="50"/>
-        <v>0.57146491239386321</v>
-      </c>
-      <c r="Z36" s="9">
         <f t="shared" si="45"/>
         <v>0.56014877551477671</v>
       </c>
+      <c r="Y36" s="9">
+        <f t="shared" si="46"/>
+        <v>0.57146491239386321</v>
+      </c>
+      <c r="Z36" s="9">
+        <f t="shared" si="41"/>
+        <v>0.56014877551477671</v>
+      </c>
       <c r="AA36" s="9">
         <v>0</v>
       </c>
       <c r="AB36" s="8">
-        <f t="shared" si="51"/>
-        <v>0.22405951020591067</v>
-      </c>
-      <c r="AC36" s="8">
-        <f t="shared" si="46"/>
-        <v>0.15314505243030263</v>
-      </c>
-      <c r="AD36" s="8">
         <f t="shared" si="47"/>
         <v>0.22405951020591067</v>
       </c>
+      <c r="AC36" s="8">
+        <f t="shared" si="42"/>
+        <v>0.15314505243030263</v>
+      </c>
+      <c r="AD36" s="8">
+        <f t="shared" si="43"/>
+        <v>0.22405951020591067</v>
+      </c>
       <c r="AE36" s="8">
         <v>0</v>
       </c>
       <c r="AF36">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>2.1285653469561514</v>
       </c>
       <c r="AG36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.11202975510295521</v>
       </c>
       <c r="AH36">
         <v>1</v>
       </c>
       <c r="AI36">
-        <f t="shared" si="21"/>
+        <f>((1/(G36*H36*I36))-1)*(1-Q36)</f>
         <v>0.11285653469561512</v>
       </c>
       <c r="AJ36">
+        <f t="shared" si="50"/>
+        <v>1.0157088122605362</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="51"/>
+        <v>3.1928480204342273</v>
+      </c>
+      <c r="AL36">
+        <f t="shared" si="52"/>
+        <v>0.16804463265443281</v>
+      </c>
+      <c r="AM36">
+        <f t="shared" si="53"/>
+        <v>1.5</v>
+      </c>
+      <c r="AN36">
+        <f>AI36*((O36/P36)-1)</f>
+        <v>0.16928480204342267</v>
+      </c>
+      <c r="AO36">
+        <f t="shared" si="54"/>
+        <v>1.5235632183908043</v>
+      </c>
+      <c r="AP36">
         <f t="shared" si="55"/>
-        <v>1.0157088122605362</v>
-      </c>
-      <c r="AK36">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="AQ36">
         <f t="shared" si="56"/>
-        <v>3.1928480204342273</v>
-      </c>
-      <c r="AL36">
+        <v>0.4</v>
+      </c>
+      <c r="AR36">
         <f t="shared" si="57"/>
-        <v>0.16804463265443281</v>
-      </c>
-      <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AS36">
         <f t="shared" si="58"/>
-        <v>1.5</v>
-      </c>
-      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AT36">
+        <f t="shared" si="48"/>
+        <v>8.8772251864248535</v>
+      </c>
+      <c r="AU36">
+        <f>U36+W36+Y36+AA36+AC36+AC36+AE36+AG36+AI36+AJ36+AL36+AN36+AO36+AP36+AQ36+AR36+AS36</f>
+        <v>8.8772251864248535</v>
+      </c>
+      <c r="AV36">
         <f t="shared" si="59"/>
-        <v>0.16928480204342267</v>
-      </c>
-      <c r="AO36">
-        <f t="shared" si="60"/>
-        <v>1.5235632183908043</v>
-      </c>
-      <c r="AP36">
-        <f t="shared" si="61"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="AQ36">
-        <f t="shared" si="62"/>
-        <v>0.4</v>
-      </c>
-      <c r="AR36">
-        <f t="shared" si="63"/>
-        <v>1</v>
-      </c>
-      <c r="AS36">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="AT36">
-        <f t="shared" si="52"/>
-        <v>8.8772251864248535</v>
-      </c>
-      <c r="AU36">
-        <f t="shared" si="53"/>
-        <v>8.8772251864248535</v>
-      </c>
-      <c r="AV36">
-        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -16916,58 +16920,58 @@
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
       <c r="AF37">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="AG37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.2923976608187131</v>
       </c>
       <c r="AH37">
         <v>1</v>
       </c>
       <c r="AI37">
-        <f t="shared" si="21"/>
+        <f>((1/(G37*H37*I37))-1)*(1-Q37)</f>
         <v>4.5555555555555554</v>
       </c>
       <c r="AJ37">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <f>AI37*((O37/P37)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AP37">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AK37">
+      <c r="AQ37">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AL37">
+      <c r="AR37">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AS37">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AN37">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AO37">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AQ37">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <f t="shared" si="63"/>
-        <v>1</v>
-      </c>
-      <c r="AS37">
-        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AT37">
@@ -16975,11 +16979,11 @@
         <v>9.9286132705844974</v>
       </c>
       <c r="AU37">
-        <f t="shared" ref="AU37:AU50" si="66">U37+W37+Y37+AA37+AC37+AE37+AG37+AI37+AJ37+AL37+AN37+AO37+AP37+AQ37+AR37+AS37</f>
+        <f>U37+W37+Y37+AA37+AC37+AE37+AG37+AI37+AJ37+AL37+AN37+AO37+AP37+AQ37+AR37+AS37</f>
         <v>9.9286132705844974</v>
       </c>
       <c r="AV37">
-        <f t="shared" si="65"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
@@ -17036,15 +17040,15 @@
         <v>0</v>
       </c>
       <c r="T38" s="8">
-        <f t="shared" ref="T38:T46" si="67">B38*(1/(B38*F38*G38*H38*I38))*(O38/P38)</f>
+        <f t="shared" ref="T38:T43" si="60">B38*(1/(B38*F38*G38*H38*I38))*(O38/P38)</f>
         <v>5.8479532163742682</v>
       </c>
       <c r="U38" s="8">
-        <f t="shared" ref="U38:U43" si="68">(1/(G38*H38*I38*F38*E38))*((1/B38)-1)*(O38/P38)</f>
+        <f t="shared" ref="U38:U43" si="61">(1/(G38*H38*I38*F38*E38))*((1/B38)-1)*(O38/P38)</f>
         <v>4.0806600542102291</v>
       </c>
       <c r="V38" s="8">
-        <f t="shared" ref="V38:V43" si="69">(AF38/F38)*(O38/P38)</f>
+        <f t="shared" ref="V38:V43" si="62">(AF38/F38)*(O38/P38)</f>
         <v>5.8479532163742691</v>
       </c>
       <c r="W38" s="8">
@@ -17059,70 +17063,70 @@
       <c r="AD38" s="8"/>
       <c r="AE38" s="8"/>
       <c r="AF38">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="AG38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.2923976608187131</v>
       </c>
       <c r="AH38">
         <v>1</v>
       </c>
       <c r="AI38">
-        <f t="shared" si="21"/>
+        <f>((1/(G38*H38*I38))-1)*(1-Q38)</f>
         <v>0.45555555555555544</v>
       </c>
       <c r="AJ38">
+        <f t="shared" si="50"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <f>AI38*((O38/P38)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AP38">
         <f t="shared" si="55"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AL38">
+      <c r="AR38">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AS38">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="AN38">
+      <c r="AT38">
+        <f t="shared" ref="AT38:AT43" si="63">(T38+X38+AB38+U38+Y38+AC38)</f>
+        <v>9.9286132705844974</v>
+      </c>
+      <c r="AU38">
+        <f>U38+W38+Y38+AA38+AC38+AE38+AG38+AI38+AJ38+AL38+AN38+AO38+AP38+AQ38+AR38+AS38</f>
+        <v>9.9286132705844974</v>
+      </c>
+      <c r="AV38">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AO38">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AQ38">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <f t="shared" si="63"/>
-        <v>1</v>
-      </c>
-      <c r="AS38">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="AT38">
-        <f t="shared" ref="AT38:AT43" si="70">(T38+X38+AB38+U38+Y38+AC38)</f>
-        <v>9.9286132705844974</v>
-      </c>
-      <c r="AU38">
-        <f t="shared" si="66"/>
-        <v>9.9286132705844974</v>
-      </c>
-      <c r="AV38">
-        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -17179,15 +17183,15 @@
         <v>0</v>
       </c>
       <c r="T39" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="60"/>
         <v>2.6702982723170181</v>
       </c>
       <c r="U39" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="61"/>
         <v>1.86331509324668</v>
       </c>
       <c r="V39" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="62"/>
         <v>2.6702982723170177</v>
       </c>
       <c r="W39" s="8">
@@ -17202,70 +17206,70 @@
       <c r="AD39" s="8"/>
       <c r="AE39" s="8"/>
       <c r="AF39">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>2.5367833587011668</v>
       </c>
       <c r="AG39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.13351491361585074</v>
       </c>
       <c r="AH39">
         <v>1</v>
       </c>
       <c r="AI39">
-        <f t="shared" si="21"/>
+        <f>((1/(G39*H39*I39))-1)*(1-Q39)</f>
         <v>1.5367833587011668</v>
       </c>
       <c r="AJ39">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <f>AI39*((O39/P39)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AP39">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AK39">
+      <c r="AQ39">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AL39">
+      <c r="AR39">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AS39">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="AN39">
+      <c r="AT39">
+        <f t="shared" si="63"/>
+        <v>4.5336133655636983</v>
+      </c>
+      <c r="AU39">
+        <f>U39+W39+Y39+AA39+AC39+AE39+AG39+AI39+AJ39+AL39+AN39+AO39+AP39+AQ39+AR39+AS39</f>
+        <v>4.5336133655636974</v>
+      </c>
+      <c r="AV39">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AO39">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AQ39">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <f t="shared" si="63"/>
-        <v>1</v>
-      </c>
-      <c r="AS39">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="AT39">
-        <f t="shared" si="70"/>
-        <v>4.5336133655636983</v>
-      </c>
-      <c r="AU39">
-        <f t="shared" si="66"/>
-        <v>4.5336133655636974</v>
-      </c>
-      <c r="AV39">
-        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -17322,15 +17326,15 @@
         <v>0</v>
       </c>
       <c r="T40" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="60"/>
         <v>5.8479532163742682</v>
       </c>
       <c r="U40" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="61"/>
         <v>4.0806600542102291</v>
       </c>
       <c r="V40" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="62"/>
         <v>5.8479532163742691</v>
       </c>
       <c r="W40" s="8">
@@ -17345,70 +17349,70 @@
       <c r="AD40" s="8"/>
       <c r="AE40" s="8"/>
       <c r="AF40">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="AG40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.2923976608187131</v>
       </c>
       <c r="AH40">
         <v>1</v>
       </c>
       <c r="AI40">
-        <f t="shared" si="21"/>
+        <f>((1/(G40*H40*I40))-1)*(1-Q40)</f>
         <v>4.5555555555555554</v>
       </c>
       <c r="AJ40">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <f>AI40*((O40/P40)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AP40">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AK40">
+      <c r="AQ40">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AL40">
+      <c r="AR40">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AS40">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="AN40">
+      <c r="AT40">
+        <f t="shared" si="63"/>
+        <v>9.9286132705844974</v>
+      </c>
+      <c r="AU40">
+        <f>U40+W40+Y40+AA40+AC40+AE40+AG40+AI40+AJ40+AL40+AN40+AO40+AP40+AQ40+AR40+AS40</f>
+        <v>9.9286132705844974</v>
+      </c>
+      <c r="AV40">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AO40">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AQ40">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <f t="shared" si="63"/>
-        <v>1</v>
-      </c>
-      <c r="AS40">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="AT40">
-        <f t="shared" si="70"/>
-        <v>9.9286132705844974</v>
-      </c>
-      <c r="AU40">
-        <f t="shared" si="66"/>
-        <v>9.9286132705844974</v>
-      </c>
-      <c r="AV40">
-        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -17465,15 +17469,15 @@
         <v>0</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="60"/>
         <v>5.8479532163742682</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="61"/>
         <v>4.0806600542102291</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="62"/>
         <v>5.8479532163742691</v>
       </c>
       <c r="W41" s="8">
@@ -17488,70 +17492,70 @@
       <c r="AD41" s="8"/>
       <c r="AE41" s="8"/>
       <c r="AF41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="AG41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.2923976608187131</v>
       </c>
       <c r="AH41">
         <v>1</v>
       </c>
       <c r="AI41">
-        <f t="shared" si="21"/>
+        <f>((1/(G41*H41*I41))-1)*(1-Q41)</f>
         <v>4.5555555555555554</v>
       </c>
       <c r="AJ41">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <f>AI41*((O41/P41)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AP41">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AK41">
+      <c r="AQ41">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AL41">
+      <c r="AR41">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AS41">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="AN41">
+      <c r="AT41">
+        <f t="shared" si="63"/>
+        <v>9.9286132705844974</v>
+      </c>
+      <c r="AU41">
+        <f>U41+W41+Y41+AA41+AC41+AE41+AG41+AI41+AJ41+AL41+AN41+AO41+AP41+AQ41+AR41+AS41</f>
+        <v>9.9286132705844974</v>
+      </c>
+      <c r="AV41">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AO41">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AQ41">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <f t="shared" si="63"/>
-        <v>1</v>
-      </c>
-      <c r="AS41">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="AT41">
-        <f t="shared" si="70"/>
-        <v>9.9286132705844974</v>
-      </c>
-      <c r="AU41">
-        <f t="shared" si="66"/>
-        <v>9.9286132705844974</v>
-      </c>
-      <c r="AV41">
-        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -17608,15 +17612,15 @@
         <v>0.5</v>
       </c>
       <c r="T42" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="60"/>
         <v>5.8479532163742682</v>
       </c>
       <c r="U42" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="61"/>
         <v>4.0806600542102291</v>
       </c>
       <c r="V42" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="62"/>
         <v>5.8479532163742691</v>
       </c>
       <c r="W42" s="8">
@@ -17631,70 +17635,70 @@
       <c r="AD42" s="8"/>
       <c r="AE42" s="8"/>
       <c r="AF42">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="AG42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.2923976608187131</v>
       </c>
       <c r="AH42">
         <v>1</v>
       </c>
       <c r="AI42">
-        <f t="shared" si="21"/>
+        <f>((1/(G42*H42*I42))-1)*(1-Q42)</f>
         <v>4.5555555555555554</v>
       </c>
       <c r="AJ42">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <f>AI42*((O42/P42)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AP42">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AK42">
+      <c r="AQ42">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AL42">
+      <c r="AR42">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AM42">
+        <v>0.5</v>
+      </c>
+      <c r="AS42">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AN42">
+        <v>0.5</v>
+      </c>
+      <c r="AT42">
+        <f t="shared" si="63"/>
+        <v>9.9286132705844974</v>
+      </c>
+      <c r="AU42">
+        <f>U42+W42+Y42+AA42+AC42+AE42+AG42+AI42+AJ42+AL42+AN42+AO42+AP42+AQ42+AR42+AS42</f>
+        <v>9.9286132705844974</v>
+      </c>
+      <c r="AV42">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AO42">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AQ42">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <f t="shared" si="63"/>
-        <v>0.5</v>
-      </c>
-      <c r="AS42">
-        <f t="shared" si="64"/>
-        <v>0.5</v>
-      </c>
-      <c r="AT42">
-        <f t="shared" si="70"/>
-        <v>9.9286132705844974</v>
-      </c>
-      <c r="AU42">
-        <f t="shared" si="66"/>
-        <v>9.9286132705844974</v>
-      </c>
-      <c r="AV42">
-        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -17751,15 +17755,15 @@
         <v>0.5</v>
       </c>
       <c r="T43" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="60"/>
         <v>2.6702982723170181</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="61"/>
         <v>1.86331509324668</v>
       </c>
       <c r="V43" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="62"/>
         <v>2.6702982723170177</v>
       </c>
       <c r="W43" s="8">
@@ -17774,70 +17778,70 @@
       <c r="AD43" s="8"/>
       <c r="AE43" s="8"/>
       <c r="AF43">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>2.5367833587011668</v>
       </c>
       <c r="AG43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.13351491361585074</v>
       </c>
       <c r="AH43">
         <v>1</v>
       </c>
       <c r="AI43">
-        <f t="shared" si="21"/>
+        <f>((1/(G43*H43*I43))-1)*(1-Q43)</f>
         <v>0.15367833587011664</v>
       </c>
       <c r="AJ43">
+        <f t="shared" si="50"/>
+        <v>1.3831050228310502</v>
+      </c>
+      <c r="AK43">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <f>AI43*((O43/P43)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AP43">
         <f t="shared" si="55"/>
-        <v>1.3831050228310502</v>
-      </c>
-      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AL43">
+      <c r="AR43">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AM43">
+        <v>0.5</v>
+      </c>
+      <c r="AS43">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AN43">
+        <v>0.5</v>
+      </c>
+      <c r="AT43">
+        <f t="shared" si="63"/>
+        <v>4.5336133655636983</v>
+      </c>
+      <c r="AU43">
+        <f>U43+W43+Y43+AA43+AC43+AE43+AG43+AI43+AJ43+AL43+AN43+AO43+AP43+AQ43+AR43+AS43</f>
+        <v>4.5336133655636974</v>
+      </c>
+      <c r="AV43">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AO43">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AQ43">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <f t="shared" si="63"/>
-        <v>0.5</v>
-      </c>
-      <c r="AS43">
-        <f t="shared" si="64"/>
-        <v>0.5</v>
-      </c>
-      <c r="AT43">
-        <f t="shared" si="70"/>
-        <v>4.5336133655636983</v>
-      </c>
-      <c r="AU43">
-        <f t="shared" si="66"/>
-        <v>4.5336133655636974</v>
-      </c>
-      <c r="AV43">
-        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -17904,7 +17908,7 @@
         <v>4.6783625730994158</v>
       </c>
       <c r="U44" s="8">
-        <f t="shared" ref="U44:U50" si="71">0.8*(1/(G44*H44*I44*F44*E44))*((1/B44)-1)*(O44/P44)</f>
+        <f t="shared" ref="U44:U50" si="64">0.8*(1/(G44*H44*I44*F44*E44))*((1/B44)-1)*(O44/P44)</f>
         <v>1.9016129164918862</v>
       </c>
       <c r="V44" s="8">
@@ -17923,7 +17927,7 @@
         <v>1.766569200779727E-2</v>
       </c>
       <c r="Z44" s="9">
-        <f t="shared" ref="Z44:Z50" si="72">0.01*(AF44/F44)*(O44/P44)</f>
+        <f t="shared" ref="Z44:Z50" si="65">0.01*(AF44/F44)*(O44/P44)</f>
         <v>5.8479532163742694E-2</v>
       </c>
       <c r="AA44" s="9">
@@ -17934,69 +17938,69 @@
         <v>1.1111111111111112</v>
       </c>
       <c r="AC44" s="8">
-        <f t="shared" ref="AC44:AC50" si="73">0.19*(1-D44)*(1/(D44*F44*G44*H44*I44))*(O44/P44)</f>
+        <f t="shared" ref="AC44:AC50" si="66">0.19*(1-D44)*(1/(D44*F44*G44*H44*I44))*(O44/P44)</f>
         <v>0.75944631500187076</v>
       </c>
       <c r="AD44" s="8">
-        <f t="shared" ref="AD44:AD50" si="74">0.19*(AF44/F44)*(O44/P44)</f>
+        <f t="shared" ref="AD44:AD50" si="67">0.19*(AF44/F44)*(O44/P44)</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="AE44" s="8">
         <v>0</v>
       </c>
       <c r="AF44">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="AG44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.2923976608187131</v>
       </c>
       <c r="AH44">
         <v>1</v>
       </c>
       <c r="AI44">
-        <f t="shared" si="21"/>
+        <f>((1/(G44*H44*I44))-1)*(1-Q44)</f>
         <v>4.5555555555555554</v>
       </c>
       <c r="AJ44">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <f>AI44*((O44/P44)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AP44">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AK44">
+      <c r="AQ44">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AL44">
+      <c r="AR44">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AS44">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AN44">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AO44">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AQ44">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <f t="shared" si="63"/>
-        <v>1</v>
-      </c>
-      <c r="AS44">
-        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AT44">
@@ -18004,11 +18008,11 @@
         <v>8.5266781398758233</v>
       </c>
       <c r="AU44">
-        <f t="shared" si="66"/>
+        <f>U44+W44+Y44+AA44+AC44+AE44+AG44+AI44+AJ44+AL44+AN44+AO44+AP44+AQ44+AR44+AS44</f>
         <v>8.5266781398758233</v>
       </c>
       <c r="AV44">
-        <f t="shared" si="65"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
@@ -18071,115 +18075,115 @@
         <v>0</v>
       </c>
       <c r="T45" s="8">
-        <f t="shared" ref="T45:T50" si="75">0.8*B45*(1/(B45*F45*G45*H45*I45))*(O45/P45)</f>
+        <f t="shared" ref="T45:T50" si="68">0.8*B45*(1/(B45*F45*G45*H45*I45))*(O45/P45)</f>
         <v>4.6783625730994158</v>
       </c>
       <c r="U45" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="64"/>
         <v>1.9016129164918862</v>
       </c>
       <c r="V45" s="8">
-        <f t="shared" ref="V45:V50" si="76">0.8*(AF45/F45)*(O45/P45)</f>
+        <f t="shared" ref="V45:V50" si="69">0.8*(AF45/F45)*(O45/P45)</f>
         <v>4.6783625730994158</v>
       </c>
       <c r="W45" s="8">
         <v>0</v>
       </c>
       <c r="X45" s="9">
-        <f t="shared" ref="X45:X50" si="77">0.01*(1/(F45*G45*H45*I45))*(O45/P45)</f>
+        <f t="shared" ref="X45:X50" si="70">0.01*(1/(F45*G45*H45*I45))*(O45/P45)</f>
         <v>5.8479532163742694E-2</v>
       </c>
       <c r="Y45" s="9">
-        <f t="shared" ref="Y45:Y50" si="78">0.01*(1-C45)*(1/(C45*F45*G45*H45*I45))*(O45/P45)</f>
+        <f t="shared" ref="Y45:Y50" si="71">0.01*(1-C45)*(1/(C45*F45*G45*H45*I45))*(O45/P45)</f>
         <v>1.766569200779727E-2</v>
       </c>
       <c r="Z45" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v>5.8479532163742694E-2</v>
       </c>
       <c r="AA45" s="9">
         <v>0</v>
       </c>
       <c r="AB45" s="8">
-        <f t="shared" ref="AB45:AB50" si="79">0.19*(1/(F45*G45*H45*I45))*(O45/P45)</f>
+        <f t="shared" ref="AB45:AB50" si="72">0.19*(1/(F45*G45*H45*I45))*(O45/P45)</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="AC45" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="66"/>
         <v>0.75944631500187076</v>
       </c>
       <c r="AD45" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="67"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="AE45" s="8">
         <v>0</v>
       </c>
       <c r="AF45">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="AG45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.2923976608187131</v>
       </c>
       <c r="AH45">
         <v>1</v>
       </c>
       <c r="AI45">
-        <f t="shared" si="21"/>
+        <f>((1/(G45*H45*I45))-1)*(1-Q45)</f>
         <v>0.45555555555555544</v>
       </c>
       <c r="AJ45">
+        <f t="shared" si="50"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AK45">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <f>AI45*((O45/P45)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AP45">
         <f t="shared" si="55"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AL45">
+      <c r="AR45">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AS45">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="AN45">
+      <c r="AT45">
+        <f t="shared" ref="AT45:AT50" si="73">(T45+X45+AB45+U45+Y45+AC45)</f>
+        <v>8.5266781398758233</v>
+      </c>
+      <c r="AU45">
+        <f>U45+W45+Y45+AA45+AC45+AE45+AG45+AI45+AJ45+AL45+AN45+AO45+AP45+AQ45+AR45+AS45</f>
+        <v>8.5266781398758216</v>
+      </c>
+      <c r="AV45">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AO45">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AQ45">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <f t="shared" si="63"/>
-        <v>1</v>
-      </c>
-      <c r="AS45">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="AT45">
-        <f t="shared" ref="AT45:AT50" si="80">(T45+X45+AB45+U45+Y45+AC45)</f>
-        <v>8.5266781398758233</v>
-      </c>
-      <c r="AU45">
-        <f t="shared" si="66"/>
-        <v>8.5266781398758216</v>
-      </c>
-      <c r="AV45">
-        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -18242,115 +18246,115 @@
         <v>0</v>
       </c>
       <c r="T46" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="68"/>
         <v>2.1362386178536146</v>
       </c>
       <c r="U46" s="8">
+        <f t="shared" si="64"/>
+        <v>0.86831640022460566</v>
+      </c>
+      <c r="V46" s="8">
+        <f t="shared" si="69"/>
+        <v>2.1362386178536141</v>
+      </c>
+      <c r="W46" s="8">
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f t="shared" si="70"/>
+        <v>2.670298272317018E-2</v>
+      </c>
+      <c r="Y46" s="9">
         <f t="shared" si="71"/>
-        <v>0.86831640022460566</v>
-      </c>
-      <c r="V46" s="8">
-        <f t="shared" si="76"/>
-        <v>2.1362386178536141</v>
-      </c>
-      <c r="W46" s="8">
-        <v>0</v>
-      </c>
-      <c r="X46" s="9">
-        <f t="shared" si="77"/>
-        <v>2.670298272317018E-2</v>
-      </c>
-      <c r="Y46" s="9">
-        <f t="shared" si="78"/>
         <v>8.0665260309576593E-3</v>
       </c>
       <c r="Z46" s="9">
+        <f t="shared" si="65"/>
+        <v>2.6702982723170177E-2</v>
+      </c>
+      <c r="AA46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="8">
         <f t="shared" si="72"/>
-        <v>2.6702982723170177E-2</v>
-      </c>
-      <c r="AA46" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="8">
-        <f t="shared" si="79"/>
         <v>0.50735667174023347</v>
       </c>
       <c r="AC46" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="66"/>
         <v>0.34677913927026061</v>
       </c>
       <c r="AD46" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="67"/>
         <v>0.50735667174023336</v>
       </c>
       <c r="AE46" s="8">
         <v>0</v>
       </c>
       <c r="AF46">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>2.5367833587011668</v>
       </c>
       <c r="AG46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.13351491361585074</v>
       </c>
       <c r="AH46">
         <v>1</v>
       </c>
       <c r="AI46">
-        <f t="shared" si="21"/>
+        <f>((1/(G46*H46*I46))-1)*(1-Q46)</f>
         <v>1.5367833587011668</v>
       </c>
       <c r="AJ46">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <f>AI46*((O46/P46)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AP46">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AK46">
+      <c r="AQ46">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AL46">
+      <c r="AR46">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AS46">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="AN46">
+      <c r="AT46">
+        <f t="shared" si="73"/>
+        <v>3.8934603378428418</v>
+      </c>
+      <c r="AU46">
+        <f>U46+W46+Y46+AA46+AC46+AE46+AG46+AI46+AJ46+AL46+AN46+AO46+AP46+AQ46+AR46+AS46</f>
+        <v>3.8934603378428414</v>
+      </c>
+      <c r="AV46">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AO46">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AQ46">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <f t="shared" si="63"/>
-        <v>1</v>
-      </c>
-      <c r="AS46">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="AT46">
-        <f t="shared" si="80"/>
-        <v>3.8934603378428418</v>
-      </c>
-      <c r="AU46">
-        <f t="shared" si="66"/>
-        <v>3.8934603378428414</v>
-      </c>
-      <c r="AV46">
-        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -18413,115 +18417,115 @@
         <v>0</v>
       </c>
       <c r="T47" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="68"/>
         <v>4.6783625730994158</v>
       </c>
       <c r="U47" s="8">
+        <f t="shared" si="64"/>
+        <v>1.9016129164918862</v>
+      </c>
+      <c r="V47" s="8">
+        <f t="shared" si="69"/>
+        <v>4.6783625730994158</v>
+      </c>
+      <c r="W47" s="8">
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f t="shared" si="70"/>
+        <v>5.8479532163742694E-2</v>
+      </c>
+      <c r="Y47" s="9">
         <f t="shared" si="71"/>
-        <v>1.9016129164918862</v>
-      </c>
-      <c r="V47" s="8">
-        <f t="shared" si="76"/>
-        <v>4.6783625730994158</v>
-      </c>
-      <c r="W47" s="8">
-        <v>0</v>
-      </c>
-      <c r="X47" s="9">
-        <f t="shared" si="77"/>
+        <v>1.766569200779727E-2</v>
+      </c>
+      <c r="Z47" s="9">
+        <f t="shared" si="65"/>
         <v>5.8479532163742694E-2</v>
       </c>
-      <c r="Y47" s="9">
-        <f t="shared" si="78"/>
-        <v>1.766569200779727E-2</v>
-      </c>
-      <c r="Z47" s="9">
+      <c r="AA47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="8">
         <f t="shared" si="72"/>
-        <v>5.8479532163742694E-2</v>
-      </c>
-      <c r="AA47" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="8">
-        <f t="shared" si="79"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="AC47" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="66"/>
         <v>0.75944631500187076</v>
       </c>
       <c r="AD47" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="67"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="AE47" s="8">
         <v>0</v>
       </c>
       <c r="AF47">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="AG47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.2923976608187131</v>
       </c>
       <c r="AH47">
         <v>1</v>
       </c>
       <c r="AI47">
-        <f t="shared" si="21"/>
+        <f>((1/(G47*H47*I47))-1)*(1-Q47)</f>
         <v>4.5555555555555554</v>
       </c>
       <c r="AJ47">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <f>AI47*((O47/P47)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AP47">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AK47">
+      <c r="AQ47">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AL47">
+      <c r="AR47">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AS47">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="AN47">
+      <c r="AT47">
+        <f t="shared" si="73"/>
+        <v>8.5266781398758233</v>
+      </c>
+      <c r="AU47">
+        <f>U47+W47+Y47+AA47+AC47+AE47+AG47+AI47+AJ47+AL47+AN47+AO47+AP47+AQ47+AR47+AS47</f>
+        <v>8.5266781398758233</v>
+      </c>
+      <c r="AV47">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AO47">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AP47">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AQ47">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <f t="shared" si="63"/>
-        <v>1</v>
-      </c>
-      <c r="AS47">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="AT47">
-        <f t="shared" si="80"/>
-        <v>8.5266781398758233</v>
-      </c>
-      <c r="AU47">
-        <f t="shared" si="66"/>
-        <v>8.5266781398758233</v>
-      </c>
-      <c r="AV47">
-        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -18584,115 +18588,115 @@
         <v>0</v>
       </c>
       <c r="T48" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="68"/>
         <v>4.6783625730994158</v>
       </c>
       <c r="U48" s="8">
+        <f t="shared" si="64"/>
+        <v>1.9016129164918862</v>
+      </c>
+      <c r="V48" s="8">
+        <f t="shared" si="69"/>
+        <v>4.6783625730994158</v>
+      </c>
+      <c r="W48" s="8">
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f t="shared" si="70"/>
+        <v>5.8479532163742694E-2</v>
+      </c>
+      <c r="Y48" s="9">
         <f t="shared" si="71"/>
-        <v>1.9016129164918862</v>
-      </c>
-      <c r="V48" s="8">
-        <f t="shared" si="76"/>
-        <v>4.6783625730994158</v>
-      </c>
-      <c r="W48" s="8">
-        <v>0</v>
-      </c>
-      <c r="X48" s="9">
-        <f t="shared" si="77"/>
+        <v>1.766569200779727E-2</v>
+      </c>
+      <c r="Z48" s="9">
+        <f t="shared" si="65"/>
         <v>5.8479532163742694E-2</v>
       </c>
-      <c r="Y48" s="9">
-        <f t="shared" si="78"/>
-        <v>1.766569200779727E-2</v>
-      </c>
-      <c r="Z48" s="9">
+      <c r="AA48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="8">
         <f t="shared" si="72"/>
-        <v>5.8479532163742694E-2</v>
-      </c>
-      <c r="AA48" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="8">
-        <f t="shared" si="79"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="AC48" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="66"/>
         <v>0.75944631500187076</v>
       </c>
       <c r="AD48" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="67"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="AE48" s="8">
         <v>0</v>
       </c>
       <c r="AF48">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="AG48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.2923976608187131</v>
       </c>
       <c r="AH48">
         <v>1</v>
       </c>
       <c r="AI48">
-        <f t="shared" si="21"/>
+        <f>((1/(G48*H48*I48))-1)*(1-Q48)</f>
         <v>4.5555555555555554</v>
       </c>
       <c r="AJ48">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <f>AI48*((O48/P48)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AP48">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AK48">
+      <c r="AQ48">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AL48">
+      <c r="AR48">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AS48">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="AN48">
+      <c r="AT48">
+        <f t="shared" si="73"/>
+        <v>8.5266781398758233</v>
+      </c>
+      <c r="AU48">
+        <f>U48+W48+Y48+AA48+AC48+AE48+AG48+AI48+AJ48+AL48+AN48+AO48+AP48+AQ48+AR48+AS48</f>
+        <v>8.5266781398758233</v>
+      </c>
+      <c r="AV48">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AO48">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AQ48">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <f t="shared" si="63"/>
-        <v>1</v>
-      </c>
-      <c r="AS48">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="AT48">
-        <f t="shared" si="80"/>
-        <v>8.5266781398758233</v>
-      </c>
-      <c r="AU48">
-        <f t="shared" si="66"/>
-        <v>8.5266781398758233</v>
-      </c>
-      <c r="AV48">
-        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -18755,115 +18759,115 @@
         <v>0.5</v>
       </c>
       <c r="T49" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="68"/>
         <v>4.6783625730994158</v>
       </c>
       <c r="U49" s="8">
+        <f t="shared" si="64"/>
+        <v>1.9016129164918862</v>
+      </c>
+      <c r="V49" s="8">
+        <f t="shared" si="69"/>
+        <v>4.6783625730994158</v>
+      </c>
+      <c r="W49" s="8">
+        <v>0</v>
+      </c>
+      <c r="X49" s="9">
+        <f t="shared" si="70"/>
+        <v>5.8479532163742694E-2</v>
+      </c>
+      <c r="Y49" s="9">
         <f t="shared" si="71"/>
-        <v>1.9016129164918862</v>
-      </c>
-      <c r="V49" s="8">
-        <f t="shared" si="76"/>
-        <v>4.6783625730994158</v>
-      </c>
-      <c r="W49" s="8">
-        <v>0</v>
-      </c>
-      <c r="X49" s="9">
-        <f t="shared" si="77"/>
+        <v>1.766569200779727E-2</v>
+      </c>
+      <c r="Z49" s="9">
+        <f t="shared" si="65"/>
         <v>5.8479532163742694E-2</v>
       </c>
-      <c r="Y49" s="9">
-        <f t="shared" si="78"/>
-        <v>1.766569200779727E-2</v>
-      </c>
-      <c r="Z49" s="9">
+      <c r="AA49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="8">
         <f t="shared" si="72"/>
-        <v>5.8479532163742694E-2</v>
-      </c>
-      <c r="AA49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="8">
-        <f t="shared" si="79"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="AC49" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="66"/>
         <v>0.75944631500187076</v>
       </c>
       <c r="AD49" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="67"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="AE49" s="8">
         <v>0</v>
       </c>
       <c r="AF49">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="AG49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.2923976608187131</v>
       </c>
       <c r="AH49">
         <v>1</v>
       </c>
       <c r="AI49">
-        <f t="shared" si="21"/>
+        <f>((1/(G49*H49*I49))-1)*(1-Q49)</f>
         <v>4.5555555555555554</v>
       </c>
       <c r="AJ49">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <f>AI49*((O49/P49)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AP49">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AK49">
+      <c r="AQ49">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AL49">
+      <c r="AR49">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AM49">
+        <v>0.5</v>
+      </c>
+      <c r="AS49">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AN49">
+        <v>0.5</v>
+      </c>
+      <c r="AT49">
+        <f t="shared" si="73"/>
+        <v>8.5266781398758233</v>
+      </c>
+      <c r="AU49">
+        <f>U49+W49+Y49+AA49+AC49+AE49+AG49+AI49+AJ49+AL49+AN49+AO49+AP49+AQ49+AR49+AS49</f>
+        <v>8.5266781398758233</v>
+      </c>
+      <c r="AV49">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AO49">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AQ49">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AR49">
-        <f t="shared" si="63"/>
-        <v>0.5</v>
-      </c>
-      <c r="AS49">
-        <f t="shared" si="64"/>
-        <v>0.5</v>
-      </c>
-      <c r="AT49">
-        <f t="shared" si="80"/>
-        <v>8.5266781398758233</v>
-      </c>
-      <c r="AU49">
-        <f t="shared" si="66"/>
-        <v>8.5266781398758233</v>
-      </c>
-      <c r="AV49">
-        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -18926,115 +18930,115 @@
         <v>0.5</v>
       </c>
       <c r="T50" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="68"/>
         <v>2.1362386178536146</v>
       </c>
       <c r="U50" s="8">
+        <f t="shared" si="64"/>
+        <v>0.86831640022460566</v>
+      </c>
+      <c r="V50" s="8">
+        <f t="shared" si="69"/>
+        <v>2.1362386178536141</v>
+      </c>
+      <c r="W50" s="8">
+        <v>0</v>
+      </c>
+      <c r="X50" s="9">
+        <f t="shared" si="70"/>
+        <v>2.670298272317018E-2</v>
+      </c>
+      <c r="Y50" s="9">
         <f t="shared" si="71"/>
-        <v>0.86831640022460566</v>
-      </c>
-      <c r="V50" s="8">
-        <f t="shared" si="76"/>
-        <v>2.1362386178536141</v>
-      </c>
-      <c r="W50" s="8">
-        <v>0</v>
-      </c>
-      <c r="X50" s="9">
-        <f t="shared" si="77"/>
-        <v>2.670298272317018E-2</v>
-      </c>
-      <c r="Y50" s="9">
-        <f t="shared" si="78"/>
         <v>8.0665260309576593E-3</v>
       </c>
       <c r="Z50" s="9">
+        <f t="shared" si="65"/>
+        <v>2.6702982723170177E-2</v>
+      </c>
+      <c r="AA50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="8">
         <f t="shared" si="72"/>
-        <v>2.6702982723170177E-2</v>
-      </c>
-      <c r="AA50" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="8">
-        <f t="shared" si="79"/>
         <v>0.50735667174023347</v>
       </c>
       <c r="AC50" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="66"/>
         <v>0.34677913927026061</v>
       </c>
       <c r="AD50" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="67"/>
         <v>0.50735667174023336</v>
       </c>
       <c r="AE50" s="8">
         <v>0</v>
       </c>
       <c r="AF50">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>2.5367833587011668</v>
       </c>
       <c r="AG50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.13351491361585074</v>
       </c>
       <c r="AH50">
         <v>1</v>
       </c>
       <c r="AI50">
-        <f t="shared" si="21"/>
+        <f>((1/(G50*H50*I50))-1)*(1-Q50)</f>
         <v>0.15367833587011664</v>
       </c>
       <c r="AJ50">
+        <f t="shared" si="50"/>
+        <v>1.3831050228310502</v>
+      </c>
+      <c r="AK50">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <f>AI50*((O50/P50)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AP50">
         <f t="shared" si="55"/>
-        <v>1.3831050228310502</v>
-      </c>
-      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AL50">
+      <c r="AR50">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AM50">
+        <v>0.5</v>
+      </c>
+      <c r="AS50">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AN50">
+        <v>0.5</v>
+      </c>
+      <c r="AT50">
+        <f t="shared" si="73"/>
+        <v>3.8934603378428418</v>
+      </c>
+      <c r="AU50">
+        <f>U50+W50+Y50+AA50+AC50+AE50+AG50+AI50+AJ50+AL50+AN50+AO50+AP50+AQ50+AR50+AS50</f>
+        <v>3.8934603378428414</v>
+      </c>
+      <c r="AV50">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AO50">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AP50">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AQ50">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AR50">
-        <f t="shared" si="63"/>
-        <v>0.5</v>
-      </c>
-      <c r="AS50">
-        <f t="shared" si="64"/>
-        <v>0.5</v>
-      </c>
-      <c r="AT50">
-        <f t="shared" si="80"/>
-        <v>3.8934603378428418</v>
-      </c>
-      <c r="AU50">
-        <f t="shared" si="66"/>
-        <v>3.8934603378428414</v>
-      </c>
-      <c r="AV50">
-        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -19680,7 +19684,7 @@
   <dimension ref="A1:K167"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1048576"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24299,7 +24303,7 @@
       <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -24326,7 +24330,7 @@
       <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" t="s">
         <v>134</v>
       </c>
     </row>
@@ -24353,7 +24357,7 @@
       <c r="J4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -24380,7 +24384,7 @@
       <c r="J5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -24407,7 +24411,7 @@
       <c r="J6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" t="s">
         <v>131</v>
       </c>
     </row>
@@ -24434,7 +24438,7 @@
       <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" t="s">
         <v>131</v>
       </c>
     </row>
@@ -24461,7 +24465,7 @@
       <c r="J8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -24488,7 +24492,7 @@
       <c r="J9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" t="s">
         <v>131</v>
       </c>
     </row>
@@ -24515,7 +24519,7 @@
       <c r="J10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" t="s">
         <v>131</v>
       </c>
     </row>
@@ -24542,7 +24546,7 @@
       <c r="J11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" t="s">
         <v>131</v>
       </c>
     </row>
@@ -24569,7 +24573,7 @@
       <c r="J12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" t="s">
         <v>131</v>
       </c>
     </row>
@@ -24596,7 +24600,7 @@
       <c r="J13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" t="s">
         <v>131</v>
       </c>
     </row>
@@ -24623,7 +24627,7 @@
       <c r="J14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="K14" t="s">
         <v>131</v>
       </c>
     </row>
@@ -24650,7 +24654,7 @@
       <c r="J15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="K15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -24677,7 +24681,7 @@
       <c r="J16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" t="s">
         <v>131</v>
       </c>
     </row>
@@ -24704,7 +24708,7 @@
       <c r="J17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" t="s">
         <v>131</v>
       </c>
     </row>
@@ -24731,7 +24735,7 @@
       <c r="J18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="K18" t="s">
         <v>131</v>
       </c>
     </row>
@@ -24758,7 +24762,7 @@
       <c r="J19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="K19" t="s">
         <v>131</v>
       </c>
     </row>
@@ -24785,7 +24789,7 @@
       <c r="J20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="K20" t="s">
         <v>136</v>
       </c>
     </row>
@@ -24812,7 +24816,7 @@
       <c r="J21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" t="s">
         <v>136</v>
       </c>
     </row>
@@ -24839,7 +24843,7 @@
       <c r="J22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" t="s">
         <v>136</v>
       </c>
     </row>
@@ -24866,7 +24870,7 @@
       <c r="J23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="K23" t="s">
         <v>136</v>
       </c>
     </row>
@@ -24893,7 +24897,7 @@
       <c r="J24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" t="s">
         <v>135</v>
       </c>
     </row>
@@ -24920,7 +24924,7 @@
       <c r="J25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="K25" t="s">
         <v>135</v>
       </c>
     </row>
@@ -24947,7 +24951,7 @@
       <c r="J26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="K26" t="s">
         <v>135</v>
       </c>
     </row>
@@ -24974,7 +24978,7 @@
       <c r="J27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" t="s">
         <v>135</v>
       </c>
     </row>
@@ -25001,7 +25005,7 @@
       <c r="J28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25028,7 +25032,7 @@
       <c r="J29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25055,7 +25059,7 @@
       <c r="J30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25082,7 +25086,7 @@
       <c r="J31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="23" t="s">
+      <c r="K31" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25109,7 +25113,7 @@
       <c r="J32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="23" t="s">
+      <c r="K32" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25136,7 +25140,7 @@
       <c r="J33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="23" t="s">
+      <c r="K33" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25163,7 +25167,7 @@
       <c r="J34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="23" t="s">
+      <c r="K34" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25190,7 +25194,7 @@
       <c r="J35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="23" t="s">
+      <c r="K35" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25217,7 +25221,7 @@
       <c r="J36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="23" t="s">
+      <c r="K36" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25244,7 +25248,7 @@
       <c r="J37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K37" s="23" t="s">
+      <c r="K37" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25271,7 +25275,7 @@
       <c r="J38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="23" t="s">
+      <c r="K38" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25298,7 +25302,7 @@
       <c r="J39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="23" t="s">
+      <c r="K39" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25325,7 +25329,7 @@
       <c r="J40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="23" t="s">
+      <c r="K40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25352,7 +25356,7 @@
       <c r="J41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K41" s="23" t="s">
+      <c r="K41" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25379,7 +25383,7 @@
       <c r="J42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K42" s="23" t="s">
+      <c r="K42" t="s">
         <v>136</v>
       </c>
     </row>
@@ -25406,7 +25410,7 @@
       <c r="J43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K43" s="23" t="s">
+      <c r="K43" t="s">
         <v>136</v>
       </c>
     </row>
@@ -25433,7 +25437,7 @@
       <c r="J44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="23" t="s">
+      <c r="K44" t="s">
         <v>136</v>
       </c>
     </row>
@@ -25460,7 +25464,7 @@
       <c r="J45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K45" s="23" t="s">
+      <c r="K45" t="s">
         <v>136</v>
       </c>
     </row>
@@ -25487,7 +25491,7 @@
       <c r="J46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K46" s="23" t="s">
+      <c r="K46" t="s">
         <v>135</v>
       </c>
     </row>
@@ -25514,7 +25518,7 @@
       <c r="J47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="23" t="s">
+      <c r="K47" t="s">
         <v>135</v>
       </c>
     </row>
@@ -25541,7 +25545,7 @@
       <c r="J48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K48" s="23" t="s">
+      <c r="K48" t="s">
         <v>135</v>
       </c>
     </row>
@@ -25568,7 +25572,7 @@
       <c r="J49" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K49" s="23" t="s">
+      <c r="K49" t="s">
         <v>135</v>
       </c>
     </row>
@@ -25595,7 +25599,7 @@
       <c r="J50" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K50" s="23" t="s">
+      <c r="K50" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25622,7 +25626,7 @@
       <c r="J51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K51" s="23" t="s">
+      <c r="K51" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25649,7 +25653,7 @@
       <c r="J52" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K52" s="23" t="s">
+      <c r="K52" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25676,7 +25680,7 @@
       <c r="J53" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K53" s="23" t="s">
+      <c r="K53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25703,7 +25707,7 @@
       <c r="J54" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K54" s="23" t="s">
+      <c r="K54" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25730,7 +25734,7 @@
       <c r="J55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K55" s="23" t="s">
+      <c r="K55" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25757,7 +25761,7 @@
       <c r="J56" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K56" s="23" t="s">
+      <c r="K56" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25784,7 +25788,7 @@
       <c r="J57" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K57" s="23" t="s">
+      <c r="K57" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25811,7 +25815,7 @@
       <c r="J58" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K58" s="23" t="s">
+      <c r="K58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25838,7 +25842,7 @@
       <c r="J59" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K59" s="23" t="s">
+      <c r="K59" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25865,7 +25869,7 @@
       <c r="J60" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K60" s="23" t="s">
+      <c r="K60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25892,7 +25896,7 @@
       <c r="J61" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K61" s="23" t="s">
+      <c r="K61" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25919,7 +25923,7 @@
       <c r="J62" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K62" s="23" t="s">
+      <c r="K62" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25946,7 +25950,7 @@
       <c r="J63" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K63" s="23" t="s">
+      <c r="K63" t="s">
         <v>31</v>
       </c>
     </row>
@@ -25973,7 +25977,7 @@
       <c r="J64" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K64" s="23" t="s">
+      <c r="K64" t="s">
         <v>132</v>
       </c>
     </row>
@@ -26000,7 +26004,7 @@
       <c r="J65" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K65" s="23" t="s">
+      <c r="K65" t="s">
         <v>132</v>
       </c>
     </row>
@@ -26027,7 +26031,7 @@
       <c r="J66" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K66" s="23" t="s">
+      <c r="K66" t="s">
         <v>132</v>
       </c>
     </row>
@@ -26054,7 +26058,7 @@
       <c r="J67" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K67" s="23" t="s">
+      <c r="K67" t="s">
         <v>132</v>
       </c>
     </row>
@@ -26081,7 +26085,7 @@
       <c r="J68" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K68" s="23" t="s">
+      <c r="K68" t="s">
         <v>138</v>
       </c>
     </row>
@@ -26108,7 +26112,7 @@
       <c r="J69" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K69" s="23" t="s">
+      <c r="K69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -26135,7 +26139,7 @@
       <c r="J70" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K70" s="23" t="s">
+      <c r="K70" t="s">
         <v>138</v>
       </c>
     </row>
@@ -26162,7 +26166,7 @@
       <c r="J71" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K71" s="23" t="s">
+      <c r="K71" t="s">
         <v>138</v>
       </c>
     </row>
@@ -26189,7 +26193,7 @@
       <c r="J72" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K72" s="23" t="s">
+      <c r="K72" t="s">
         <v>133</v>
       </c>
     </row>
@@ -26216,7 +26220,7 @@
       <c r="J73" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K73" s="23" t="s">
+      <c r="K73" t="s">
         <v>133</v>
       </c>
     </row>
@@ -26243,7 +26247,7 @@
       <c r="J74" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K74" s="23" t="s">
+      <c r="K74" t="s">
         <v>133</v>
       </c>
     </row>
@@ -26270,7 +26274,7 @@
       <c r="J75" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K75" s="23" t="s">
+      <c r="K75" t="s">
         <v>133</v>
       </c>
     </row>
@@ -26297,7 +26301,7 @@
       <c r="J76" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K76" s="23" t="s">
+      <c r="K76" t="s">
         <v>39</v>
       </c>
     </row>
@@ -26324,7 +26328,7 @@
       <c r="J77" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K77" s="23" t="s">
+      <c r="K77" t="s">
         <v>39</v>
       </c>
     </row>
@@ -26351,7 +26355,7 @@
       <c r="J78" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K78" s="23" t="s">
+      <c r="K78" t="s">
         <v>39</v>
       </c>
     </row>
@@ -26378,7 +26382,7 @@
       <c r="J79" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K79" s="23" t="s">
+      <c r="K79" t="s">
         <v>39</v>
       </c>
     </row>
@@ -26405,7 +26409,7 @@
       <c r="J80" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K80" s="23" t="s">
+      <c r="K80" t="s">
         <v>39</v>
       </c>
     </row>
@@ -26432,7 +26436,7 @@
       <c r="J81" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K81" s="23" t="s">
+      <c r="K81" t="s">
         <v>39</v>
       </c>
     </row>
@@ -26459,7 +26463,7 @@
       <c r="J82" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K82" s="23" t="s">
+      <c r="K82" t="s">
         <v>39</v>
       </c>
     </row>
@@ -26486,7 +26490,7 @@
       <c r="J83" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K83" s="23" t="s">
+      <c r="K83" t="s">
         <v>39</v>
       </c>
     </row>
@@ -26513,7 +26517,7 @@
       <c r="J84" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K84" s="23" t="s">
+      <c r="K84" t="s">
         <v>39</v>
       </c>
     </row>
@@ -26540,7 +26544,7 @@
       <c r="J85" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K85" s="23" t="s">
+      <c r="K85" t="s">
         <v>39</v>
       </c>
     </row>
@@ -26567,7 +26571,7 @@
       <c r="J86" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K86" s="23" t="s">
+      <c r="K86" t="s">
         <v>39</v>
       </c>
     </row>
@@ -26594,7 +26598,7 @@
       <c r="J87" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K87" s="23" t="s">
+      <c r="K87" t="s">
         <v>39</v>
       </c>
     </row>
@@ -26621,7 +26625,7 @@
       <c r="J88" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K88" s="23" t="s">
+      <c r="K88" t="s">
         <v>39</v>
       </c>
     </row>
@@ -26648,7 +26652,7 @@
       <c r="J89" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K89" s="23" t="s">
+      <c r="K89" t="s">
         <v>39</v>
       </c>
     </row>
@@ -26675,7 +26679,7 @@
       <c r="J90" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K90" s="23" t="s">
+      <c r="K90" t="s">
         <v>132</v>
       </c>
     </row>
@@ -26702,7 +26706,7 @@
       <c r="J91" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K91" s="23" t="s">
+      <c r="K91" t="s">
         <v>132</v>
       </c>
     </row>
@@ -26729,7 +26733,7 @@
       <c r="J92" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K92" s="23" t="s">
+      <c r="K92" t="s">
         <v>132</v>
       </c>
     </row>
@@ -26756,7 +26760,7 @@
       <c r="J93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K93" s="23" t="s">
+      <c r="K93" t="s">
         <v>132</v>
       </c>
     </row>
@@ -26783,7 +26787,7 @@
       <c r="J94" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K94" s="23" t="s">
+      <c r="K94" t="s">
         <v>138</v>
       </c>
     </row>
@@ -26810,7 +26814,7 @@
       <c r="J95" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K95" s="23" t="s">
+      <c r="K95" t="s">
         <v>138</v>
       </c>
     </row>
@@ -26837,7 +26841,7 @@
       <c r="J96" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K96" s="23" t="s">
+      <c r="K96" t="s">
         <v>138</v>
       </c>
     </row>
@@ -26864,7 +26868,7 @@
       <c r="J97" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K97" s="23" t="s">
+      <c r="K97" t="s">
         <v>138</v>
       </c>
     </row>
@@ -26891,7 +26895,7 @@
       <c r="J98" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K98" s="23" t="s">
+      <c r="K98" t="s">
         <v>133</v>
       </c>
     </row>
@@ -26918,7 +26922,7 @@
       <c r="J99" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K99" s="23" t="s">
+      <c r="K99" t="s">
         <v>133</v>
       </c>
     </row>
@@ -26945,7 +26949,7 @@
       <c r="J100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K100" s="23" t="s">
+      <c r="K100" t="s">
         <v>133</v>
       </c>
     </row>
@@ -26972,7 +26976,7 @@
       <c r="J101" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K101" s="23" t="s">
+      <c r="K101" t="s">
         <v>133</v>
       </c>
     </row>
@@ -26999,7 +27003,7 @@
       <c r="J102" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K102" s="23" t="s">
+      <c r="K102" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27026,7 +27030,7 @@
       <c r="J103" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K103" s="23" t="s">
+      <c r="K103" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27053,7 +27057,7 @@
       <c r="J104" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K104" s="23" t="s">
+      <c r="K104" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27080,7 +27084,7 @@
       <c r="J105" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K105" s="23" t="s">
+      <c r="K105" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27107,7 +27111,7 @@
       <c r="J106" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K106" s="23" t="s">
+      <c r="K106" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27134,7 +27138,7 @@
       <c r="J107" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K107" s="23" t="s">
+      <c r="K107" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27161,7 +27165,7 @@
       <c r="J108" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K108" s="23" t="s">
+      <c r="K108" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27188,7 +27192,7 @@
       <c r="J109" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K109" s="23" t="s">
+      <c r="K109" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27215,7 +27219,7 @@
       <c r="J110" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K110" s="23" t="s">
+      <c r="K110" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27242,7 +27246,7 @@
       <c r="J111" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K111" s="23" t="s">
+      <c r="K111" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27269,7 +27273,7 @@
       <c r="J112" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K112" s="23" t="s">
+      <c r="K112" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27296,7 +27300,7 @@
       <c r="J113" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K113" s="23" t="s">
+      <c r="K113" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27323,7 +27327,7 @@
       <c r="J114" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K114" s="23" t="s">
+      <c r="K114" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27350,7 +27354,7 @@
       <c r="J115" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K115" s="23" t="s">
+      <c r="K115" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27377,7 +27381,7 @@
       <c r="J116" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K116" s="23" t="s">
+      <c r="K116" t="s">
         <v>137</v>
       </c>
     </row>
@@ -27404,7 +27408,7 @@
       <c r="J117" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K117" s="23" t="s">
+      <c r="K117" t="s">
         <v>137</v>
       </c>
     </row>
@@ -27431,7 +27435,7 @@
       <c r="J118" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K118" s="23" t="s">
+      <c r="K118" t="s">
         <v>137</v>
       </c>
     </row>
@@ -27458,7 +27462,7 @@
       <c r="J119" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K119" s="23" t="s">
+      <c r="K119" t="s">
         <v>137</v>
       </c>
     </row>
@@ -27485,7 +27489,7 @@
       <c r="J120" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K120" s="23" t="s">
+      <c r="K120" t="s">
         <v>139</v>
       </c>
     </row>
@@ -27512,7 +27516,7 @@
       <c r="J121" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K121" s="23" t="s">
+      <c r="K121" t="s">
         <v>139</v>
       </c>
     </row>
@@ -27539,7 +27543,7 @@
       <c r="J122" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K122" s="23" t="s">
+      <c r="K122" t="s">
         <v>139</v>
       </c>
     </row>
@@ -27566,7 +27570,7 @@
       <c r="J123" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K123" s="23" t="s">
+      <c r="K123" t="s">
         <v>139</v>
       </c>
     </row>
@@ -27593,7 +27597,7 @@
       <c r="J124" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K124" s="23" t="s">
+      <c r="K124" t="s">
         <v>133</v>
       </c>
     </row>
@@ -27620,7 +27624,7 @@
       <c r="J125" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K125" s="23" t="s">
+      <c r="K125" t="s">
         <v>133</v>
       </c>
     </row>
@@ -27647,7 +27651,7 @@
       <c r="J126" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K126" s="23" t="s">
+      <c r="K126" t="s">
         <v>133</v>
       </c>
     </row>
@@ -27674,7 +27678,7 @@
       <c r="J127" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K127" s="23" t="s">
+      <c r="K127" t="s">
         <v>133</v>
       </c>
     </row>
@@ -27701,7 +27705,7 @@
       <c r="J128" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K128" s="23" t="s">
+      <c r="K128" t="s">
         <v>42</v>
       </c>
     </row>
@@ -27728,7 +27732,7 @@
       <c r="J129" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K129" s="23" t="s">
+      <c r="K129" t="s">
         <v>42</v>
       </c>
     </row>
@@ -27755,7 +27759,7 @@
       <c r="J130" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K130" s="23" t="s">
+      <c r="K130" t="s">
         <v>42</v>
       </c>
     </row>
@@ -27782,7 +27786,7 @@
       <c r="J131" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K131" s="23" t="s">
+      <c r="K131" t="s">
         <v>42</v>
       </c>
     </row>
@@ -27809,7 +27813,7 @@
       <c r="J132" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K132" s="23" t="s">
+      <c r="K132" t="s">
         <v>42</v>
       </c>
     </row>
@@ -27836,7 +27840,7 @@
       <c r="J133" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K133" s="23" t="s">
+      <c r="K133" t="s">
         <v>42</v>
       </c>
     </row>
@@ -27863,7 +27867,7 @@
       <c r="J134" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K134" s="23" t="s">
+      <c r="K134" t="s">
         <v>42</v>
       </c>
     </row>
@@ -27890,7 +27894,7 @@
       <c r="J135" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K135" s="23" t="s">
+      <c r="K135" t="s">
         <v>42</v>
       </c>
     </row>
@@ -27917,7 +27921,7 @@
       <c r="J136" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K136" s="23" t="s">
+      <c r="K136" t="s">
         <v>42</v>
       </c>
     </row>
@@ -27944,7 +27948,7 @@
       <c r="J137" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K137" s="23" t="s">
+      <c r="K137" t="s">
         <v>42</v>
       </c>
     </row>
@@ -27971,7 +27975,7 @@
       <c r="J138" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K138" s="23" t="s">
+      <c r="K138" t="s">
         <v>42</v>
       </c>
     </row>
@@ -27998,7 +28002,7 @@
       <c r="J139" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K139" s="23" t="s">
+      <c r="K139" t="s">
         <v>42</v>
       </c>
     </row>
@@ -28025,7 +28029,7 @@
       <c r="J140" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K140" s="23" t="s">
+      <c r="K140" t="s">
         <v>42</v>
       </c>
     </row>
@@ -28052,7 +28056,7 @@
       <c r="J141" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K141" s="23" t="s">
+      <c r="K141" t="s">
         <v>42</v>
       </c>
     </row>
@@ -28079,7 +28083,7 @@
       <c r="J142" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K142" s="23" t="s">
+      <c r="K142" t="s">
         <v>137</v>
       </c>
     </row>
@@ -28106,7 +28110,7 @@
       <c r="J143" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K143" s="23" t="s">
+      <c r="K143" t="s">
         <v>137</v>
       </c>
     </row>
@@ -28133,7 +28137,7 @@
       <c r="J144" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K144" s="23" t="s">
+      <c r="K144" t="s">
         <v>137</v>
       </c>
     </row>
@@ -28160,7 +28164,7 @@
       <c r="J145" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K145" s="23" t="s">
+      <c r="K145" t="s">
         <v>137</v>
       </c>
     </row>
@@ -28187,7 +28191,7 @@
       <c r="J146" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K146" s="23" t="s">
+      <c r="K146" t="s">
         <v>139</v>
       </c>
     </row>
@@ -28214,7 +28218,7 @@
       <c r="J147" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K147" s="23" t="s">
+      <c r="K147" t="s">
         <v>139</v>
       </c>
     </row>
@@ -28241,7 +28245,7 @@
       <c r="J148" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K148" s="23" t="s">
+      <c r="K148" t="s">
         <v>139</v>
       </c>
     </row>
@@ -28268,7 +28272,7 @@
       <c r="J149" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K149" s="23" t="s">
+      <c r="K149" t="s">
         <v>139</v>
       </c>
     </row>
@@ -28295,7 +28299,7 @@
       <c r="J150" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K150" s="23" t="s">
+      <c r="K150" t="s">
         <v>133</v>
       </c>
     </row>
@@ -28322,7 +28326,7 @@
       <c r="J151" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K151" s="23" t="s">
+      <c r="K151" t="s">
         <v>133</v>
       </c>
     </row>
@@ -28349,7 +28353,7 @@
       <c r="J152" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K152" s="23" t="s">
+      <c r="K152" t="s">
         <v>133</v>
       </c>
     </row>
@@ -28376,7 +28380,7 @@
       <c r="J153" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K153" s="23" t="s">
+      <c r="K153" t="s">
         <v>133</v>
       </c>
     </row>
@@ -28403,7 +28407,7 @@
       <c r="J154" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K154" s="23" t="s">
+      <c r="K154" t="s">
         <v>42</v>
       </c>
     </row>
@@ -28430,7 +28434,7 @@
       <c r="J155" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K155" s="23" t="s">
+      <c r="K155" t="s">
         <v>42</v>
       </c>
     </row>
@@ -28457,7 +28461,7 @@
       <c r="J156" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K156" s="23" t="s">
+      <c r="K156" t="s">
         <v>42</v>
       </c>
     </row>
@@ -28484,7 +28488,7 @@
       <c r="J157" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K157" s="23" t="s">
+      <c r="K157" t="s">
         <v>42</v>
       </c>
     </row>
@@ -28511,7 +28515,7 @@
       <c r="J158" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K158" s="23" t="s">
+      <c r="K158" t="s">
         <v>42</v>
       </c>
     </row>
@@ -28538,7 +28542,7 @@
       <c r="J159" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K159" s="23" t="s">
+      <c r="K159" t="s">
         <v>42</v>
       </c>
     </row>
@@ -28565,7 +28569,7 @@
       <c r="J160" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K160" s="23" t="s">
+      <c r="K160" t="s">
         <v>42</v>
       </c>
     </row>
@@ -28592,7 +28596,7 @@
       <c r="J161" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K161" s="23" t="s">
+      <c r="K161" t="s">
         <v>42</v>
       </c>
     </row>
@@ -28619,7 +28623,7 @@
       <c r="J162" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K162" s="23" t="s">
+      <c r="K162" t="s">
         <v>42</v>
       </c>
     </row>
@@ -28646,7 +28650,7 @@
       <c r="J163" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K163" s="23" t="s">
+      <c r="K163" t="s">
         <v>42</v>
       </c>
     </row>
@@ -28673,7 +28677,7 @@
       <c r="J164" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K164" s="23" t="s">
+      <c r="K164" t="s">
         <v>42</v>
       </c>
     </row>
@@ -28700,7 +28704,7 @@
       <c r="J165" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K165" s="23" t="s">
+      <c r="K165" t="s">
         <v>42</v>
       </c>
     </row>
@@ -28727,7 +28731,7 @@
       <c r="J166" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K166" s="23" t="s">
+      <c r="K166" t="s">
         <v>42</v>
       </c>
     </row>
@@ -28754,7 +28758,7 @@
       <c r="J167" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K167" s="23" t="s">
+      <c r="K167" t="s">
         <v>42</v>
       </c>
     </row>
